--- a/PaperNeural/ExperimentsConfigMar2017_23-Mar-2017_pcbiolab_p1_tsne.xlsx
+++ b/PaperNeural/ExperimentsConfigMar2017_23-Mar-2017_pcbiolab_p1_tsne.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9118" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9442" uniqueCount="1429">
   <si>
     <t>WorkFolder</t>
   </si>
@@ -3661,6 +3661,666 @@
   </si>
   <si>
     <t>T4_Rest_t-SNE_IF-IA_13-Apr-2017_MI_1000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 11:53:38</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_13-Apr-2017_MI_1000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 12:26:47</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_13-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_2000_LR_400_PE_16.xlsx</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 12:31:44</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_13-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 14:23:52</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_13-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 14:30:24</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_13-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 16:28:22</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_13-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 16:34:52</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_13-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 19:08:34</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_13-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 20:35:45</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_13-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 20:39:16</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_13-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 22:11:00</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_13-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 22:14:36</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_13-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 23:13:55</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_13-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>13-Apr-2017 23:17:45</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_13-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 01:00:40</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 01:52:17</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 01:55:44</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 03:07:14</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 03:10:26</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 04:03:08</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 04:06:28</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 05:18:35</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 05:51:22</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 05:54:22</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 07:16:44</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 07:19:58</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 08:19:57</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 08:23:18</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 09:32:50</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_14-Apr-2017_MI_2000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 10:20:05</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_3000_LR_400_PE_16.xlsx</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 10:23:46</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 12:23:21</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 12:30:29</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 14:30:52</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 14:37:35</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 17:03:46</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 19:09:54</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 19:13:18</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 20:41:18</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 20:45:02</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 21:48:10</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 21:52:31</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 23:08:23</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 23:54:15</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>14-Apr-2017 23:57:22</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_14-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 01:01:06</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_15-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 01:04:49</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_15-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 01:49:58</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_15-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 01:53:19</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_15-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 02:57:49</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_15-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 03:29:55</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_15-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 03:32:30</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_15-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 05:01:08</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_15-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 05:03:51</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_15-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 05:55:59</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_15-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 05:59:01</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_15-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 07:18:36</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_15-Apr-2017_MI_3000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 07:48:44</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_4000_LR_400_PE_16.xlsx</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 07:51:56</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 09:44:16</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 09:50:54</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 11:46:28</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 11:52:49</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 14:20:23</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 15:47:25</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 15:50:36</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 17:04:22</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 17:08:22</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 18:30:33</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 18:34:39</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 19:52:55</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 20:39:23</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 20:42:05</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 21:50:50</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 21:54:30</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 22:38:53</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 22:42:24</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>15-Apr-2017 23:47:45</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_15-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 00:20:30</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_16-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 00:23:23</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_16-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 01:53:38</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_16-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 01:56:56</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_16-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 02:58:36</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_16-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 03:01:36</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_16-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 04:42:19</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_16-Apr-2017_MI_4000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 05:14:28</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_5000_LR_400_PE_16.xlsx</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 05:20:56</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 07:14:02</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 07:22:00</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 09:25:08</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 09:31:46</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 12:31:10</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 14:25:59</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 14:29:40</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 15:46:53</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 15:50:53</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 16:42:45</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 16:46:31</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 18:21:48</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 18:57:36</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 19:00:12</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 19:59:07</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 20:02:19</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 20:43:18</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 20:46:43</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 21:44:03</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 22:19:48</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>16-Apr-2017 22:22:29</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_16-Apr-2017_MI_5000_LR_400_PE_16</t>
   </si>
 </sst>
 </file>
@@ -62824,8 +63484,8 @@
       <c r="M868" t="s">
         <v>4</v>
       </c>
-      <c r="N868">
-        <v>0</v>
+      <c r="N868" t="n">
+        <v>1.0</v>
       </c>
       <c r="O868" t="s">
         <v>1207</v>
@@ -62836,8 +63496,26 @@
       <c r="Q868" t="n">
         <v>0.3477160401745625</v>
       </c>
+      <c r="R868" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S868" t="n">
+        <v>24.298064003114778</v>
+      </c>
+      <c r="T868" t="n">
+        <v>0.9457575717565173</v>
+      </c>
+      <c r="U868" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V868" t="n">
+        <v>84.21052631578948</v>
+      </c>
       <c r="W868" t="s">
         <v>1208</v>
+      </c>
+      <c r="X868" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="869" spans="1:14" x14ac:dyDescent="0.2">
@@ -62880,8 +63558,38 @@
       <c r="M869" t="s">
         <v>4</v>
       </c>
-      <c r="N869">
-        <v>0</v>
+      <c r="N869" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O869" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P869" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q869" t="n">
+        <v>0.3599287866211469</v>
+      </c>
+      <c r="R869" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S869" t="n">
+        <v>15.071878025597229</v>
+      </c>
+      <c r="T869" t="n">
+        <v>0.9620888376407626</v>
+      </c>
+      <c r="U869" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V869" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W869" t="s">
+        <v>1210</v>
+      </c>
+      <c r="X869" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="870" spans="1:14" x14ac:dyDescent="0.2">
@@ -62924,8 +63632,38 @@
       <c r="M870" t="s">
         <v>4</v>
       </c>
-      <c r="N870">
-        <v>0</v>
+      <c r="N870" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O870" t="s">
+        <v>1211</v>
+      </c>
+      <c r="P870" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q870" t="n">
+        <v>0.24820323532120092</v>
+      </c>
+      <c r="R870" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S870" t="n">
+        <v>13.176485757557174</v>
+      </c>
+      <c r="T870" t="n">
+        <v>0.9608028088573208</v>
+      </c>
+      <c r="U870" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V870" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W870" t="s">
+        <v>1212</v>
+      </c>
+      <c r="X870" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="871" spans="1:14" x14ac:dyDescent="0.2">
@@ -62968,8 +63706,38 @@
       <c r="M871" t="s">
         <v>4</v>
       </c>
-      <c r="N871">
-        <v>0</v>
+      <c r="N871" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O871" t="s">
+        <v>1214</v>
+      </c>
+      <c r="P871" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>0.6787557776268827</v>
+      </c>
+      <c r="R871" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S871" t="n">
+        <v>53.2856521885595</v>
+      </c>
+      <c r="T871" t="n">
+        <v>0.9035771189892555</v>
+      </c>
+      <c r="U871" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="V871" t="n">
+        <v>47.36842105263159</v>
+      </c>
+      <c r="W871" t="s">
+        <v>1215</v>
+      </c>
+      <c r="X871" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="872" spans="1:14" x14ac:dyDescent="0.2">
@@ -63012,8 +63780,38 @@
       <c r="M872" t="s">
         <v>4</v>
       </c>
-      <c r="N872">
-        <v>0</v>
+      <c r="N872" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O872" t="s">
+        <v>1216</v>
+      </c>
+      <c r="P872" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>0.27705524260657377</v>
+      </c>
+      <c r="R872" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S872" t="n">
+        <v>15.783049227427004</v>
+      </c>
+      <c r="T872" t="n">
+        <v>0.9392313384450762</v>
+      </c>
+      <c r="U872" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V872" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W872" t="s">
+        <v>1217</v>
+      </c>
+      <c r="X872" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="873" spans="1:14" x14ac:dyDescent="0.2">
@@ -63056,8 +63854,38 @@
       <c r="M873" t="s">
         <v>4</v>
       </c>
-      <c r="N873">
-        <v>0</v>
+      <c r="N873" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O873" t="s">
+        <v>1218</v>
+      </c>
+      <c r="P873" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q873" t="n">
+        <v>0.3295801115419703</v>
+      </c>
+      <c r="R873" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S873" t="n">
+        <v>31.14438853830556</v>
+      </c>
+      <c r="T873" t="n">
+        <v>0.9079051729972365</v>
+      </c>
+      <c r="U873" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V873" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W873" t="s">
+        <v>1219</v>
+      </c>
+      <c r="X873" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="874" spans="1:14" x14ac:dyDescent="0.2">
@@ -63100,8 +63928,38 @@
       <c r="M874" t="s">
         <v>4</v>
       </c>
-      <c r="N874">
-        <v>0</v>
+      <c r="N874" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O874" t="s">
+        <v>1220</v>
+      </c>
+      <c r="P874" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q874" t="n">
+        <v>0.2661092779858407</v>
+      </c>
+      <c r="R874" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S874" t="n">
+        <v>16.295001822746208</v>
+      </c>
+      <c r="T874" t="n">
+        <v>0.9589800301023181</v>
+      </c>
+      <c r="U874" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V874" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W874" t="s">
+        <v>1221</v>
+      </c>
+      <c r="X874" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="875" spans="1:14" x14ac:dyDescent="0.2">
@@ -63144,8 +64002,38 @@
       <c r="M875" t="s">
         <v>4</v>
       </c>
-      <c r="N875">
-        <v>0</v>
+      <c r="N875" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O875" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P875" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q875" t="n">
+        <v>0.30706176503898597</v>
+      </c>
+      <c r="R875" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S875" t="n">
+        <v>29.514355700425327</v>
+      </c>
+      <c r="T875" t="n">
+        <v>0.8961263883259116</v>
+      </c>
+      <c r="U875" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V875" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W875" t="s">
+        <v>1223</v>
+      </c>
+      <c r="X875" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="876" spans="1:14" x14ac:dyDescent="0.2">
@@ -63188,8 +64076,38 @@
       <c r="M876" t="s">
         <v>4</v>
       </c>
-      <c r="N876">
-        <v>0</v>
+      <c r="N876" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O876" t="s">
+        <v>1224</v>
+      </c>
+      <c r="P876" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q876" t="n">
+        <v>0.2845392478086328</v>
+      </c>
+      <c r="R876" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S876" t="n">
+        <v>34.9045696460428</v>
+      </c>
+      <c r="T876" t="n">
+        <v>0.9209569701850064</v>
+      </c>
+      <c r="U876" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V876" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W876" t="s">
+        <v>1225</v>
+      </c>
+      <c r="X876" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="877" spans="1:14" x14ac:dyDescent="0.2">
@@ -63232,8 +64150,38 @@
       <c r="M877" t="s">
         <v>4</v>
       </c>
-      <c r="N877">
-        <v>0</v>
+      <c r="N877" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O877" t="s">
+        <v>1226</v>
+      </c>
+      <c r="P877" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q877" t="n">
+        <v>0.17676321547270035</v>
+      </c>
+      <c r="R877" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S877" t="n">
+        <v>2.902515886554929</v>
+      </c>
+      <c r="T877" t="n">
+        <v>0.9892020423338652</v>
+      </c>
+      <c r="U877" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V877" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W877" t="s">
+        <v>1227</v>
+      </c>
+      <c r="X877" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="878" spans="1:14" x14ac:dyDescent="0.2">
@@ -63276,8 +64224,38 @@
       <c r="M878" t="s">
         <v>4</v>
       </c>
-      <c r="N878">
-        <v>0</v>
+      <c r="N878" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O878" t="s">
+        <v>1228</v>
+      </c>
+      <c r="P878" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q878" t="n">
+        <v>0.46552808162529935</v>
+      </c>
+      <c r="R878" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S878" t="n">
+        <v>51.19275698435213</v>
+      </c>
+      <c r="T878" t="n">
+        <v>0.9309618671216494</v>
+      </c>
+      <c r="U878" t="n">
+        <v>94.15204678362574</v>
+      </c>
+      <c r="V878" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W878" t="s">
+        <v>1229</v>
+      </c>
+      <c r="X878" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="879" spans="1:14" x14ac:dyDescent="0.2">
@@ -63320,8 +64298,38 @@
       <c r="M879" t="s">
         <v>4</v>
       </c>
-      <c r="N879">
-        <v>0</v>
+      <c r="N879" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O879" t="s">
+        <v>1230</v>
+      </c>
+      <c r="P879" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q879" t="n">
+        <v>0.2530023969405697</v>
+      </c>
+      <c r="R879" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S879" t="n">
+        <v>22.332410927659996</v>
+      </c>
+      <c r="T879" t="n">
+        <v>0.9175435125465708</v>
+      </c>
+      <c r="U879" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V879" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W879" t="s">
+        <v>1231</v>
+      </c>
+      <c r="X879" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="880" spans="1:14" x14ac:dyDescent="0.2">
@@ -63364,8 +64372,38 @@
       <c r="M880" t="s">
         <v>4</v>
       </c>
-      <c r="N880">
-        <v>0</v>
+      <c r="N880" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O880" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P880" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>0.2025266912125936</v>
+      </c>
+      <c r="R880" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S880" t="n">
+        <v>10.257929945775464</v>
+      </c>
+      <c r="T880" t="n">
+        <v>0.9628905420351731</v>
+      </c>
+      <c r="U880" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V880" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W880" t="s">
+        <v>1233</v>
+      </c>
+      <c r="X880" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="881" spans="1:14" x14ac:dyDescent="0.2">
@@ -63408,8 +64446,38 @@
       <c r="M881" t="s">
         <v>4</v>
       </c>
-      <c r="N881">
-        <v>0</v>
+      <c r="N881" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O881" t="s">
+        <v>1234</v>
+      </c>
+      <c r="P881" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>0.16562704160838493</v>
+      </c>
+      <c r="R881" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S881" t="n">
+        <v>3.960570407961192</v>
+      </c>
+      <c r="T881" t="n">
+        <v>0.9870956413069513</v>
+      </c>
+      <c r="U881" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V881" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W881" t="s">
+        <v>1235</v>
+      </c>
+      <c r="X881" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="882" spans="1:14" x14ac:dyDescent="0.2">
@@ -63452,8 +64520,38 @@
       <c r="M882" t="s">
         <v>4</v>
       </c>
-      <c r="N882">
-        <v>0</v>
+      <c r="N882" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O882" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P882" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q882" t="n">
+        <v>0.2355234938731794</v>
+      </c>
+      <c r="R882" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="S882" t="n">
+        <v>22.39173078595751</v>
+      </c>
+      <c r="T882" t="n">
+        <v>0.9433290665893442</v>
+      </c>
+      <c r="U882" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V882" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W882" t="s">
+        <v>1237</v>
+      </c>
+      <c r="X882" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="883" spans="1:14" x14ac:dyDescent="0.2">
@@ -63496,8 +64594,38 @@
       <c r="M883" t="s">
         <v>4</v>
       </c>
-      <c r="N883">
-        <v>0</v>
+      <c r="N883" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O883" t="s">
+        <v>1238</v>
+      </c>
+      <c r="P883" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q883" t="n">
+        <v>0.1696134261091018</v>
+      </c>
+      <c r="R883" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S883" t="n">
+        <v>9.97069535484259</v>
+      </c>
+      <c r="T883" t="n">
+        <v>0.9657496007236506</v>
+      </c>
+      <c r="U883" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V883" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W883" t="s">
+        <v>1239</v>
+      </c>
+      <c r="X883" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="884" spans="1:14" x14ac:dyDescent="0.2">
@@ -63540,8 +64668,38 @@
       <c r="M884" t="s">
         <v>4</v>
       </c>
-      <c r="N884">
-        <v>0</v>
+      <c r="N884" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O884" t="s">
+        <v>1240</v>
+      </c>
+      <c r="P884" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>0.152903405795211</v>
+      </c>
+      <c r="R884" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S884" t="n">
+        <v>3.6796113335743383</v>
+      </c>
+      <c r="T884" t="n">
+        <v>0.9858659930400365</v>
+      </c>
+      <c r="U884" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V884" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W884" t="s">
+        <v>1241</v>
+      </c>
+      <c r="X884" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="885" spans="1:14" x14ac:dyDescent="0.2">
@@ -63584,8 +64742,38 @@
       <c r="M885" t="s">
         <v>4</v>
       </c>
-      <c r="N885">
-        <v>0</v>
+      <c r="N885" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O885" t="s">
+        <v>1242</v>
+      </c>
+      <c r="P885" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>0.658830751036934</v>
+      </c>
+      <c r="R885" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S885" t="n">
+        <v>44.396270345611185</v>
+      </c>
+      <c r="T885" t="n">
+        <v>0.8733578047625944</v>
+      </c>
+      <c r="U885" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="V885" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W885" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X885" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="886" spans="1:14" x14ac:dyDescent="0.2">
@@ -63628,8 +64816,38 @@
       <c r="M886" t="s">
         <v>4</v>
       </c>
-      <c r="N886">
-        <v>0</v>
+      <c r="N886" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O886" t="s">
+        <v>1244</v>
+      </c>
+      <c r="P886" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q886" t="n">
+        <v>0.1626565091258083</v>
+      </c>
+      <c r="R886" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S886" t="n">
+        <v>10.0963878043961</v>
+      </c>
+      <c r="T886" t="n">
+        <v>0.963631760549035</v>
+      </c>
+      <c r="U886" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V886" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W886" t="s">
+        <v>1245</v>
+      </c>
+      <c r="X886" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="887" spans="1:14" x14ac:dyDescent="0.2">
@@ -63672,8 +64890,38 @@
       <c r="M887" t="s">
         <v>4</v>
       </c>
-      <c r="N887">
-        <v>0</v>
+      <c r="N887" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O887" t="s">
+        <v>1246</v>
+      </c>
+      <c r="P887" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q887" t="n">
+        <v>0.25538599587871325</v>
+      </c>
+      <c r="R887" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="S887" t="n">
+        <v>18.37189729821773</v>
+      </c>
+      <c r="T887" t="n">
+        <v>0.9485600637787839</v>
+      </c>
+      <c r="U887" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V887" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W887" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X887" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="888" spans="1:14" x14ac:dyDescent="0.2">
@@ -63716,8 +64964,38 @@
       <c r="M888" t="s">
         <v>4</v>
       </c>
-      <c r="N888">
-        <v>0</v>
+      <c r="N888" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O888" t="s">
+        <v>1248</v>
+      </c>
+      <c r="P888" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q888" t="n">
+        <v>0.12793082712869364</v>
+      </c>
+      <c r="R888" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S888" t="n">
+        <v>6.538039271571829</v>
+      </c>
+      <c r="T888" t="n">
+        <v>0.9679426298014246</v>
+      </c>
+      <c r="U888" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V888" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W888" t="s">
+        <v>1249</v>
+      </c>
+      <c r="X888" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="889" spans="1:14" x14ac:dyDescent="0.2">
@@ -63760,8 +65038,38 @@
       <c r="M889" t="s">
         <v>4</v>
       </c>
-      <c r="N889">
-        <v>0</v>
+      <c r="N889" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O889" t="s">
+        <v>1250</v>
+      </c>
+      <c r="P889" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q889" t="n">
+        <v>0.2415981978575541</v>
+      </c>
+      <c r="R889" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S889" t="n">
+        <v>15.932296110737191</v>
+      </c>
+      <c r="T889" t="n">
+        <v>0.9616807751489317</v>
+      </c>
+      <c r="U889" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V889" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W889" t="s">
+        <v>1251</v>
+      </c>
+      <c r="X889" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="890" spans="1:14" x14ac:dyDescent="0.2">
@@ -63804,8 +65112,38 @@
       <c r="M890" t="s">
         <v>4</v>
       </c>
-      <c r="N890">
-        <v>0</v>
+      <c r="N890" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O890" t="s">
+        <v>1252</v>
+      </c>
+      <c r="P890" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q890" t="n">
+        <v>0.20400014819855095</v>
+      </c>
+      <c r="R890" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S890" t="n">
+        <v>12.631814853996696</v>
+      </c>
+      <c r="T890" t="n">
+        <v>0.954141168690489</v>
+      </c>
+      <c r="U890" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V890" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W890" t="s">
+        <v>1253</v>
+      </c>
+      <c r="X890" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="891" spans="1:14" x14ac:dyDescent="0.2">
@@ -63848,8 +65186,38 @@
       <c r="M891" t="s">
         <v>4</v>
       </c>
-      <c r="N891">
-        <v>0</v>
+      <c r="N891" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O891" t="s">
+        <v>1254</v>
+      </c>
+      <c r="P891" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q891" t="n">
+        <v>0.2906850824962124</v>
+      </c>
+      <c r="R891" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S891" t="n">
+        <v>24.359615401495244</v>
+      </c>
+      <c r="T891" t="n">
+        <v>0.9534180697546544</v>
+      </c>
+      <c r="U891" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V891" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W891" t="s">
+        <v>1255</v>
+      </c>
+      <c r="X891" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="892" spans="1:14" x14ac:dyDescent="0.2">
@@ -63892,8 +65260,38 @@
       <c r="M892" t="s">
         <v>4</v>
       </c>
-      <c r="N892">
-        <v>0</v>
+      <c r="N892" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O892" t="s">
+        <v>1256</v>
+      </c>
+      <c r="P892" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q892" t="n">
+        <v>0.5601871296837917</v>
+      </c>
+      <c r="R892" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S892" t="n">
+        <v>41.31068396358929</v>
+      </c>
+      <c r="T892" t="n">
+        <v>0.8836796894422928</v>
+      </c>
+      <c r="U892" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="V892" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W892" t="s">
+        <v>1257</v>
+      </c>
+      <c r="X892" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="893" spans="1:14" x14ac:dyDescent="0.2">
@@ -63936,8 +65334,38 @@
       <c r="M893" t="s">
         <v>4</v>
       </c>
-      <c r="N893">
-        <v>0</v>
+      <c r="N893" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O893" t="s">
+        <v>1258</v>
+      </c>
+      <c r="P893" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q893" t="n">
+        <v>0.3372227102642462</v>
+      </c>
+      <c r="R893" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S893" t="n">
+        <v>107.70865832539668</v>
+      </c>
+      <c r="T893" t="n">
+        <v>0.7574210924075533</v>
+      </c>
+      <c r="U893" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V893" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W893" t="s">
+        <v>1259</v>
+      </c>
+      <c r="X893" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="894" spans="1:14" x14ac:dyDescent="0.2">
@@ -63980,8 +65408,38 @@
       <c r="M894" t="s">
         <v>4</v>
       </c>
-      <c r="N894">
-        <v>0</v>
+      <c r="N894" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O894" t="s">
+        <v>1260</v>
+      </c>
+      <c r="P894" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q894" t="n">
+        <v>0.344285454225032</v>
+      </c>
+      <c r="R894" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S894" t="n">
+        <v>32.63527522001609</v>
+      </c>
+      <c r="T894" t="n">
+        <v>0.9239613575209471</v>
+      </c>
+      <c r="U894" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V894" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W894" t="s">
+        <v>1261</v>
+      </c>
+      <c r="X894" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="895" spans="1:14" x14ac:dyDescent="0.2">
@@ -64024,8 +65482,38 @@
       <c r="M895" t="s">
         <v>4</v>
       </c>
-      <c r="N895">
-        <v>0</v>
+      <c r="N895" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O895" t="s">
+        <v>1262</v>
+      </c>
+      <c r="P895" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q895" t="n">
+        <v>0.3109287061291184</v>
+      </c>
+      <c r="R895" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S895" t="n">
+        <v>35.97080744409733</v>
+      </c>
+      <c r="T895" t="n">
+        <v>0.9586882851771021</v>
+      </c>
+      <c r="U895" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V895" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W895" t="s">
+        <v>1263</v>
+      </c>
+      <c r="X895" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="896" spans="1:14" x14ac:dyDescent="0.2">
@@ -64068,8 +65556,38 @@
       <c r="M896" t="s">
         <v>4</v>
       </c>
-      <c r="N896">
-        <v>0</v>
+      <c r="N896" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O896" t="s">
+        <v>1264</v>
+      </c>
+      <c r="P896" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q896" t="n">
+        <v>0.36874213524759547</v>
+      </c>
+      <c r="R896" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S896" t="n">
+        <v>24.884966989349557</v>
+      </c>
+      <c r="T896" t="n">
+        <v>0.9580087252809936</v>
+      </c>
+      <c r="U896" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="V896" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W896" t="s">
+        <v>1265</v>
+      </c>
+      <c r="X896" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="897" spans="1:14" x14ac:dyDescent="0.2">
@@ -64112,8 +65630,38 @@
       <c r="M897" t="s">
         <v>4</v>
       </c>
-      <c r="N897">
-        <v>0</v>
+      <c r="N897" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O897" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P897" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q897" t="n">
+        <v>0.32094593396270277</v>
+      </c>
+      <c r="R897" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S897" t="n">
+        <v>26.051047130543534</v>
+      </c>
+      <c r="T897" t="n">
+        <v>0.9325782826935669</v>
+      </c>
+      <c r="U897" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V897" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W897" t="s">
+        <v>1267</v>
+      </c>
+      <c r="X897" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="898" spans="1:14" x14ac:dyDescent="0.2">
@@ -64156,8 +65704,38 @@
       <c r="M898" t="s">
         <v>4</v>
       </c>
-      <c r="N898">
-        <v>0</v>
+      <c r="N898" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O898" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P898" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q898" t="n">
+        <v>0.2614772093568867</v>
+      </c>
+      <c r="R898" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S898" t="n">
+        <v>21.979669118966545</v>
+      </c>
+      <c r="T898" t="n">
+        <v>0.9250534266620284</v>
+      </c>
+      <c r="U898" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V898" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W898" t="s">
+        <v>1269</v>
+      </c>
+      <c r="X898" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="899" spans="1:14" x14ac:dyDescent="0.2">
@@ -64200,8 +65778,38 @@
       <c r="M899" t="s">
         <v>4</v>
       </c>
-      <c r="N899">
-        <v>0</v>
+      <c r="N899" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O899" t="s">
+        <v>1271</v>
+      </c>
+      <c r="P899" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q899" t="n">
+        <v>0.6575423317553462</v>
+      </c>
+      <c r="R899" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S899" t="n">
+        <v>42.63347336448911</v>
+      </c>
+      <c r="T899" t="n">
+        <v>0.9331394920707514</v>
+      </c>
+      <c r="U899" t="n">
+        <v>90.64327485380117</v>
+      </c>
+      <c r="V899" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W899" t="s">
+        <v>1272</v>
+      </c>
+      <c r="X899" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.2">
@@ -64244,8 +65852,38 @@
       <c r="M900" t="s">
         <v>4</v>
       </c>
-      <c r="N900">
-        <v>0</v>
+      <c r="N900" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O900" t="s">
+        <v>1273</v>
+      </c>
+      <c r="P900" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q900" t="n">
+        <v>0.2693287372481272</v>
+      </c>
+      <c r="R900" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S900" t="n">
+        <v>20.555926961726275</v>
+      </c>
+      <c r="T900" t="n">
+        <v>0.9537317883186561</v>
+      </c>
+      <c r="U900" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V900" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W900" t="s">
+        <v>1274</v>
+      </c>
+      <c r="X900" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="901" spans="1:14" x14ac:dyDescent="0.2">
@@ -64288,8 +65926,38 @@
       <c r="M901" t="s">
         <v>4</v>
       </c>
-      <c r="N901">
-        <v>0</v>
+      <c r="N901" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O901" t="s">
+        <v>1275</v>
+      </c>
+      <c r="P901" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q901" t="n">
+        <v>0.2901773619700414</v>
+      </c>
+      <c r="R901" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S901" t="n">
+        <v>28.676858434018584</v>
+      </c>
+      <c r="T901" t="n">
+        <v>0.9404793006132899</v>
+      </c>
+      <c r="U901" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V901" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W901" t="s">
+        <v>1276</v>
+      </c>
+      <c r="X901" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="902" spans="1:14" x14ac:dyDescent="0.2">
@@ -64332,8 +66000,38 @@
       <c r="M902" t="s">
         <v>4</v>
       </c>
-      <c r="N902">
-        <v>0</v>
+      <c r="N902" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O902" t="s">
+        <v>1277</v>
+      </c>
+      <c r="P902" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q902" t="n">
+        <v>0.2578109414430969</v>
+      </c>
+      <c r="R902" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S902" t="n">
+        <v>16.13241510679259</v>
+      </c>
+      <c r="T902" t="n">
+        <v>0.9466247472314223</v>
+      </c>
+      <c r="U902" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V902" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W902" t="s">
+        <v>1278</v>
+      </c>
+      <c r="X902" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="903" spans="1:14" x14ac:dyDescent="0.2">
@@ -64376,8 +66074,38 @@
       <c r="M903" t="s">
         <v>4</v>
       </c>
-      <c r="N903">
-        <v>0</v>
+      <c r="N903" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O903" t="s">
+        <v>1279</v>
+      </c>
+      <c r="P903" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q903" t="n">
+        <v>0.3142399860838001</v>
+      </c>
+      <c r="R903" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="S903" t="n">
+        <v>27.536667715745345</v>
+      </c>
+      <c r="T903" t="n">
+        <v>0.9533159866910824</v>
+      </c>
+      <c r="U903" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V903" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W903" t="s">
+        <v>1280</v>
+      </c>
+      <c r="X903" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="904" spans="1:14" x14ac:dyDescent="0.2">
@@ -64420,8 +66148,38 @@
       <c r="M904" t="s">
         <v>4</v>
       </c>
-      <c r="N904">
-        <v>0</v>
+      <c r="N904" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O904" t="s">
+        <v>1281</v>
+      </c>
+      <c r="P904" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q904" t="n">
+        <v>0.24368417209368687</v>
+      </c>
+      <c r="R904" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="S904" t="n">
+        <v>13.550681608679605</v>
+      </c>
+      <c r="T904" t="n">
+        <v>0.9614294776746315</v>
+      </c>
+      <c r="U904" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V904" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W904" t="s">
+        <v>1282</v>
+      </c>
+      <c r="X904" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="905" spans="1:14" x14ac:dyDescent="0.2">
@@ -64464,8 +66222,38 @@
       <c r="M905" t="s">
         <v>4</v>
       </c>
-      <c r="N905">
-        <v>0</v>
+      <c r="N905" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O905" t="s">
+        <v>1283</v>
+      </c>
+      <c r="P905" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q905" t="n">
+        <v>0.16848601175411382</v>
+      </c>
+      <c r="R905" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S905" t="n">
+        <v>3.8452403709649663</v>
+      </c>
+      <c r="T905" t="n">
+        <v>0.9864353838077938</v>
+      </c>
+      <c r="U905" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V905" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W905" t="s">
+        <v>1284</v>
+      </c>
+      <c r="X905" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="906" spans="1:14" x14ac:dyDescent="0.2">
@@ -64508,8 +66296,38 @@
       <c r="M906" t="s">
         <v>4</v>
       </c>
-      <c r="N906">
-        <v>0</v>
+      <c r="N906" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O906" t="s">
+        <v>1285</v>
+      </c>
+      <c r="P906" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q906" t="n">
+        <v>0.48371826721188427</v>
+      </c>
+      <c r="R906" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S906" t="n">
+        <v>36.91197046467865</v>
+      </c>
+      <c r="T906" t="n">
+        <v>0.9467767621146111</v>
+      </c>
+      <c r="U906" t="n">
+        <v>93.5672514619883</v>
+      </c>
+      <c r="V906" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W906" t="s">
+        <v>1286</v>
+      </c>
+      <c r="X906" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="907" spans="1:14" x14ac:dyDescent="0.2">
@@ -64552,8 +66370,38 @@
       <c r="M907" t="s">
         <v>4</v>
       </c>
-      <c r="N907">
-        <v>0</v>
+      <c r="N907" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O907" t="s">
+        <v>1287</v>
+      </c>
+      <c r="P907" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q907" t="n">
+        <v>0.20027569266576783</v>
+      </c>
+      <c r="R907" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S907" t="n">
+        <v>12.285347687730358</v>
+      </c>
+      <c r="T907" t="n">
+        <v>0.946950296825334</v>
+      </c>
+      <c r="U907" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V907" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W907" t="s">
+        <v>1288</v>
+      </c>
+      <c r="X907" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="908" spans="1:14" x14ac:dyDescent="0.2">
@@ -64596,8 +66444,38 @@
       <c r="M908" t="s">
         <v>4</v>
       </c>
-      <c r="N908">
-        <v>0</v>
+      <c r="N908" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O908" t="s">
+        <v>1289</v>
+      </c>
+      <c r="P908" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q908" t="n">
+        <v>0.20171126092146352</v>
+      </c>
+      <c r="R908" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="S908" t="n">
+        <v>11.076007401116334</v>
+      </c>
+      <c r="T908" t="n">
+        <v>0.9716351899678185</v>
+      </c>
+      <c r="U908" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V908" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W908" t="s">
+        <v>1290</v>
+      </c>
+      <c r="X908" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="909" spans="1:14" x14ac:dyDescent="0.2">
@@ -64640,8 +66518,38 @@
       <c r="M909" t="s">
         <v>4</v>
       </c>
-      <c r="N909">
-        <v>0</v>
+      <c r="N909" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O909" t="s">
+        <v>1291</v>
+      </c>
+      <c r="P909" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q909" t="n">
+        <v>0.172481179087697</v>
+      </c>
+      <c r="R909" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S909" t="n">
+        <v>9.528609519764931</v>
+      </c>
+      <c r="T909" t="n">
+        <v>0.9603778479368054</v>
+      </c>
+      <c r="U909" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V909" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W909" t="s">
+        <v>1292</v>
+      </c>
+      <c r="X909" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="910" spans="1:14" x14ac:dyDescent="0.2">
@@ -64684,8 +66592,38 @@
       <c r="M910" t="s">
         <v>4</v>
       </c>
-      <c r="N910">
-        <v>0</v>
+      <c r="N910" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O910" t="s">
+        <v>1293</v>
+      </c>
+      <c r="P910" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q910" t="n">
+        <v>0.2218154888409707</v>
+      </c>
+      <c r="R910" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S910" t="n">
+        <v>17.310242322879915</v>
+      </c>
+      <c r="T910" t="n">
+        <v>0.9521480773764723</v>
+      </c>
+      <c r="U910" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V910" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W910" t="s">
+        <v>1294</v>
+      </c>
+      <c r="X910" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="911" spans="1:14" x14ac:dyDescent="0.2">
@@ -64728,8 +66666,38 @@
       <c r="M911" t="s">
         <v>4</v>
       </c>
-      <c r="N911">
-        <v>0</v>
+      <c r="N911" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O911" t="s">
+        <v>1295</v>
+      </c>
+      <c r="P911" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q911" t="n">
+        <v>0.17549322990031158</v>
+      </c>
+      <c r="R911" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S911" t="n">
+        <v>6.242266699894127</v>
+      </c>
+      <c r="T911" t="n">
+        <v>0.9798319134044153</v>
+      </c>
+      <c r="U911" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V911" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W911" t="s">
+        <v>1296</v>
+      </c>
+      <c r="X911" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="912" spans="1:14" x14ac:dyDescent="0.2">
@@ -64772,8 +66740,38 @@
       <c r="M912" t="s">
         <v>4</v>
       </c>
-      <c r="N912">
-        <v>0</v>
+      <c r="N912" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O912" t="s">
+        <v>1297</v>
+      </c>
+      <c r="P912" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q912" t="n">
+        <v>0.142590014902515</v>
+      </c>
+      <c r="R912" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S912" t="n">
+        <v>3.7061920083493036</v>
+      </c>
+      <c r="T912" t="n">
+        <v>0.9881917801655061</v>
+      </c>
+      <c r="U912" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V912" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W912" t="s">
+        <v>1298</v>
+      </c>
+      <c r="X912" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="913" spans="1:14" x14ac:dyDescent="0.2">
@@ -64816,8 +66814,38 @@
       <c r="M913" t="s">
         <v>4</v>
       </c>
-      <c r="N913">
-        <v>0</v>
+      <c r="N913" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O913" t="s">
+        <v>1299</v>
+      </c>
+      <c r="P913" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q913" t="n">
+        <v>0.5931190208785537</v>
+      </c>
+      <c r="R913" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S913" t="n">
+        <v>34.733148290914244</v>
+      </c>
+      <c r="T913" t="n">
+        <v>0.9403873606125159</v>
+      </c>
+      <c r="U913" t="n">
+        <v>88.30409356725146</v>
+      </c>
+      <c r="V913" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W913" t="s">
+        <v>1300</v>
+      </c>
+      <c r="X913" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="914" spans="1:14" x14ac:dyDescent="0.2">
@@ -64860,8 +66888,38 @@
       <c r="M914" t="s">
         <v>4</v>
       </c>
-      <c r="N914">
-        <v>0</v>
+      <c r="N914" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O914" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P914" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q914" t="n">
+        <v>0.15394914308436825</v>
+      </c>
+      <c r="R914" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S914" t="n">
+        <v>3.8256525999490796</v>
+      </c>
+      <c r="T914" t="n">
+        <v>0.9863148681765679</v>
+      </c>
+      <c r="U914" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V914" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W914" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X914" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="915" spans="1:14" x14ac:dyDescent="0.2">
@@ -64904,8 +66962,38 @@
       <c r="M915" t="s">
         <v>4</v>
       </c>
-      <c r="N915">
-        <v>0</v>
+      <c r="N915" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O915" t="s">
+        <v>1303</v>
+      </c>
+      <c r="P915" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q915" t="n">
+        <v>0.23209730989074018</v>
+      </c>
+      <c r="R915" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S915" t="n">
+        <v>10.128813345438587</v>
+      </c>
+      <c r="T915" t="n">
+        <v>0.9690085555248573</v>
+      </c>
+      <c r="U915" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V915" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W915" t="s">
+        <v>1304</v>
+      </c>
+      <c r="X915" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="916" spans="1:14" x14ac:dyDescent="0.2">
@@ -64948,8 +67036,38 @@
       <c r="M916" t="s">
         <v>4</v>
       </c>
-      <c r="N916">
-        <v>0</v>
+      <c r="N916" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O916" t="s">
+        <v>1305</v>
+      </c>
+      <c r="P916" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q916" t="n">
+        <v>0.15638937609340253</v>
+      </c>
+      <c r="R916" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S916" t="n">
+        <v>9.362910642889151</v>
+      </c>
+      <c r="T916" t="n">
+        <v>0.9631690263063111</v>
+      </c>
+      <c r="U916" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V916" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W916" t="s">
+        <v>1306</v>
+      </c>
+      <c r="X916" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="917" spans="1:14" x14ac:dyDescent="0.2">
@@ -64992,8 +67110,38 @@
       <c r="M917" t="s">
         <v>4</v>
       </c>
-      <c r="N917">
-        <v>0</v>
+      <c r="N917" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O917" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P917" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q917" t="n">
+        <v>0.2453419035456701</v>
+      </c>
+      <c r="R917" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S917" t="n">
+        <v>15.50040740817024</v>
+      </c>
+      <c r="T917" t="n">
+        <v>0.9494755440568102</v>
+      </c>
+      <c r="U917" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V917" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W917" t="s">
+        <v>1308</v>
+      </c>
+      <c r="X917" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="918" spans="1:14" x14ac:dyDescent="0.2">
@@ -65036,8 +67184,38 @@
       <c r="M918" t="s">
         <v>4</v>
       </c>
-      <c r="N918">
-        <v>0</v>
+      <c r="N918" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O918" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P918" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q918" t="n">
+        <v>0.16458459222109845</v>
+      </c>
+      <c r="R918" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="S918" t="n">
+        <v>6.9938990741162135</v>
+      </c>
+      <c r="T918" t="n">
+        <v>0.9811691864113012</v>
+      </c>
+      <c r="U918" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V918" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W918" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X918" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="919" spans="1:14" x14ac:dyDescent="0.2">
@@ -65080,8 +67258,38 @@
       <c r="M919" t="s">
         <v>4</v>
       </c>
-      <c r="N919">
-        <v>0</v>
+      <c r="N919" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O919" t="s">
+        <v>1311</v>
+      </c>
+      <c r="P919" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q919" t="n">
+        <v>0.3153573014837239</v>
+      </c>
+      <c r="R919" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S919" t="n">
+        <v>27.739917911999314</v>
+      </c>
+      <c r="T919" t="n">
+        <v>0.9542249904342635</v>
+      </c>
+      <c r="U919" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V919" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W919" t="s">
+        <v>1312</v>
+      </c>
+      <c r="X919" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="920" spans="1:14" x14ac:dyDescent="0.2">
@@ -65124,8 +67332,38 @@
       <c r="M920" t="s">
         <v>4</v>
       </c>
-      <c r="N920">
-        <v>0</v>
+      <c r="N920" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O920" t="s">
+        <v>1313</v>
+      </c>
+      <c r="P920" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q920" t="n">
+        <v>0.5489745743254186</v>
+      </c>
+      <c r="R920" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S920" t="n">
+        <v>32.415819935163654</v>
+      </c>
+      <c r="T920" t="n">
+        <v>0.943477090610306</v>
+      </c>
+      <c r="U920" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="V920" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W920" t="s">
+        <v>1314</v>
+      </c>
+      <c r="X920" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="921" spans="1:14" x14ac:dyDescent="0.2">
@@ -65168,8 +67406,38 @@
       <c r="M921" t="s">
         <v>4</v>
       </c>
-      <c r="N921">
-        <v>0</v>
+      <c r="N921" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O921" t="s">
+        <v>1315</v>
+      </c>
+      <c r="P921" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q921" t="n">
+        <v>0.34675297893320867</v>
+      </c>
+      <c r="R921" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S921" t="n">
+        <v>41.39866823446052</v>
+      </c>
+      <c r="T921" t="n">
+        <v>0.9206136226784095</v>
+      </c>
+      <c r="U921" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V921" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W921" t="s">
+        <v>1316</v>
+      </c>
+      <c r="X921" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="922" spans="1:14" x14ac:dyDescent="0.2">
@@ -65212,8 +67480,38 @@
       <c r="M922" t="s">
         <v>4</v>
       </c>
-      <c r="N922">
-        <v>0</v>
+      <c r="N922" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O922" t="s">
+        <v>1317</v>
+      </c>
+      <c r="P922" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q922" t="n">
+        <v>0.3754222435425909</v>
+      </c>
+      <c r="R922" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S922" t="n">
+        <v>50.960761472415975</v>
+      </c>
+      <c r="T922" t="n">
+        <v>0.9324157615925666</v>
+      </c>
+      <c r="U922" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V922" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W922" t="s">
+        <v>1318</v>
+      </c>
+      <c r="X922" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="923" spans="1:14" x14ac:dyDescent="0.2">
@@ -65256,8 +67554,38 @@
       <c r="M923" t="s">
         <v>4</v>
       </c>
-      <c r="N923">
-        <v>0</v>
+      <c r="N923" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O923" t="s">
+        <v>1319</v>
+      </c>
+      <c r="P923" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q923" t="n">
+        <v>0.2927997565869713</v>
+      </c>
+      <c r="R923" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S923" t="n">
+        <v>48.332798676477424</v>
+      </c>
+      <c r="T923" t="n">
+        <v>0.9117357206778196</v>
+      </c>
+      <c r="U923" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V923" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W923" t="s">
+        <v>1320</v>
+      </c>
+      <c r="X923" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="924" spans="1:14" x14ac:dyDescent="0.2">
@@ -65300,8 +67628,38 @@
       <c r="M924" t="s">
         <v>4</v>
       </c>
-      <c r="N924">
-        <v>0</v>
+      <c r="N924" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O924" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P924" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q924" t="n">
+        <v>0.3577707494395632</v>
+      </c>
+      <c r="R924" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S924" t="n">
+        <v>58.79541710432402</v>
+      </c>
+      <c r="T924" t="n">
+        <v>0.9080345349702481</v>
+      </c>
+      <c r="U924" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="V924" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W924" t="s">
+        <v>1322</v>
+      </c>
+      <c r="X924" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="925" spans="1:14" x14ac:dyDescent="0.2">
@@ -65344,8 +67702,38 @@
       <c r="M925" t="s">
         <v>4</v>
       </c>
-      <c r="N925">
-        <v>0</v>
+      <c r="N925" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O925" t="s">
+        <v>1323</v>
+      </c>
+      <c r="P925" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q925" t="n">
+        <v>0.31820820322252175</v>
+      </c>
+      <c r="R925" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S925" t="n">
+        <v>23.819547849889165</v>
+      </c>
+      <c r="T925" t="n">
+        <v>0.959764436807594</v>
+      </c>
+      <c r="U925" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V925" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W925" t="s">
+        <v>1324</v>
+      </c>
+      <c r="X925" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="926" spans="1:14" x14ac:dyDescent="0.2">
@@ -65388,8 +67776,38 @@
       <c r="M926" t="s">
         <v>4</v>
       </c>
-      <c r="N926">
-        <v>0</v>
+      <c r="N926" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O926" t="s">
+        <v>1325</v>
+      </c>
+      <c r="P926" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q926" t="n">
+        <v>0.26722689670144995</v>
+      </c>
+      <c r="R926" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S926" t="n">
+        <v>11.716514980778308</v>
+      </c>
+      <c r="T926" t="n">
+        <v>0.9516914697876404</v>
+      </c>
+      <c r="U926" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V926" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W926" t="s">
+        <v>1326</v>
+      </c>
+      <c r="X926" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="927" spans="1:14" x14ac:dyDescent="0.2">
@@ -65432,8 +67850,38 @@
       <c r="M927" t="s">
         <v>4</v>
       </c>
-      <c r="N927">
-        <v>0</v>
+      <c r="N927" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O927" t="s">
+        <v>1328</v>
+      </c>
+      <c r="P927" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q927" t="n">
+        <v>0.7608101458519698</v>
+      </c>
+      <c r="R927" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S927" t="n">
+        <v>37.25100080332364</v>
+      </c>
+      <c r="T927" t="n">
+        <v>0.9173907625077155</v>
+      </c>
+      <c r="U927" t="n">
+        <v>85.96491228070175</v>
+      </c>
+      <c r="V927" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W927" t="s">
+        <v>1329</v>
+      </c>
+      <c r="X927" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.2">
@@ -65476,8 +67924,38 @@
       <c r="M928" t="s">
         <v>4</v>
       </c>
-      <c r="N928">
-        <v>0</v>
+      <c r="N928" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O928" t="s">
+        <v>1330</v>
+      </c>
+      <c r="P928" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q928" t="n">
+        <v>0.2816177681820484</v>
+      </c>
+      <c r="R928" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S928" t="n">
+        <v>22.196768626396395</v>
+      </c>
+      <c r="T928" t="n">
+        <v>0.9513445325856615</v>
+      </c>
+      <c r="U928" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V928" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W928" t="s">
+        <v>1331</v>
+      </c>
+      <c r="X928" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="929" spans="1:14" x14ac:dyDescent="0.2">
@@ -65520,8 +67998,38 @@
       <c r="M929" t="s">
         <v>4</v>
       </c>
-      <c r="N929">
-        <v>0</v>
+      <c r="N929" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O929" t="s">
+        <v>1332</v>
+      </c>
+      <c r="P929" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q929" t="n">
+        <v>0.29648531932785716</v>
+      </c>
+      <c r="R929" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="S929" t="n">
+        <v>18.780784286839545</v>
+      </c>
+      <c r="T929" t="n">
+        <v>0.9535874720689508</v>
+      </c>
+      <c r="U929" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V929" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W929" t="s">
+        <v>1333</v>
+      </c>
+      <c r="X929" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="930" spans="1:14" x14ac:dyDescent="0.2">
@@ -65564,8 +68072,38 @@
       <c r="M930" t="s">
         <v>4</v>
       </c>
-      <c r="N930">
-        <v>0</v>
+      <c r="N930" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O930" t="s">
+        <v>1334</v>
+      </c>
+      <c r="P930" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q930" t="n">
+        <v>0.25378148193395056</v>
+      </c>
+      <c r="R930" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S930" t="n">
+        <v>11.147387348615496</v>
+      </c>
+      <c r="T930" t="n">
+        <v>0.960418295156348</v>
+      </c>
+      <c r="U930" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V930" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W930" t="s">
+        <v>1335</v>
+      </c>
+      <c r="X930" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="931" spans="1:14" x14ac:dyDescent="0.2">
@@ -65608,8 +68146,38 @@
       <c r="M931" t="s">
         <v>4</v>
       </c>
-      <c r="N931">
-        <v>0</v>
+      <c r="N931" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O931" t="s">
+        <v>1336</v>
+      </c>
+      <c r="P931" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q931" t="n">
+        <v>0.26753698907249834</v>
+      </c>
+      <c r="R931" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="S931" t="n">
+        <v>18.022372816063076</v>
+      </c>
+      <c r="T931" t="n">
+        <v>0.9426525210760917</v>
+      </c>
+      <c r="U931" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V931" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W931" t="s">
+        <v>1337</v>
+      </c>
+      <c r="X931" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="932" spans="1:14" x14ac:dyDescent="0.2">
@@ -65652,8 +68220,38 @@
       <c r="M932" t="s">
         <v>4</v>
       </c>
-      <c r="N932">
-        <v>0</v>
+      <c r="N932" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O932" t="s">
+        <v>1338</v>
+      </c>
+      <c r="P932" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q932" t="n">
+        <v>0.26642506522528286</v>
+      </c>
+      <c r="R932" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S932" t="n">
+        <v>37.23419327712427</v>
+      </c>
+      <c r="T932" t="n">
+        <v>0.8820731128170715</v>
+      </c>
+      <c r="U932" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V932" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W932" t="s">
+        <v>1339</v>
+      </c>
+      <c r="X932" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="933" spans="1:14" x14ac:dyDescent="0.2">
@@ -65696,8 +68294,38 @@
       <c r="M933" t="s">
         <v>4</v>
       </c>
-      <c r="N933">
-        <v>0</v>
+      <c r="N933" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O933" t="s">
+        <v>1340</v>
+      </c>
+      <c r="P933" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q933" t="n">
+        <v>0.18751121616082678</v>
+      </c>
+      <c r="R933" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S933" t="n">
+        <v>5.944349249955902</v>
+      </c>
+      <c r="T933" t="n">
+        <v>0.9722694614589406</v>
+      </c>
+      <c r="U933" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V933" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W933" t="s">
+        <v>1341</v>
+      </c>
+      <c r="X933" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="934" spans="1:14" x14ac:dyDescent="0.2">
@@ -65740,8 +68368,38 @@
       <c r="M934" t="s">
         <v>4</v>
       </c>
-      <c r="N934">
-        <v>0</v>
+      <c r="N934" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O934" t="s">
+        <v>1342</v>
+      </c>
+      <c r="P934" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q934" t="n">
+        <v>0.510072862650123</v>
+      </c>
+      <c r="R934" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S934" t="n">
+        <v>38.4875236040887</v>
+      </c>
+      <c r="T934" t="n">
+        <v>0.9577884324464085</v>
+      </c>
+      <c r="U934" t="n">
+        <v>92.98245614035088</v>
+      </c>
+      <c r="V934" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W934" t="s">
+        <v>1343</v>
+      </c>
+      <c r="X934" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="935" spans="1:14" x14ac:dyDescent="0.2">
@@ -65784,8 +68442,38 @@
       <c r="M935" t="s">
         <v>4</v>
       </c>
-      <c r="N935">
-        <v>0</v>
+      <c r="N935" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O935" t="s">
+        <v>1344</v>
+      </c>
+      <c r="P935" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q935" t="n">
+        <v>0.19238900990143826</v>
+      </c>
+      <c r="R935" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S935" t="n">
+        <v>12.120653928539275</v>
+      </c>
+      <c r="T935" t="n">
+        <v>0.9740801883030288</v>
+      </c>
+      <c r="U935" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V935" t="n">
+        <v>47.36842105263159</v>
+      </c>
+      <c r="W935" t="s">
+        <v>1345</v>
+      </c>
+      <c r="X935" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="936" spans="1:14" x14ac:dyDescent="0.2">
@@ -65828,8 +68516,38 @@
       <c r="M936" t="s">
         <v>4</v>
       </c>
-      <c r="N936">
-        <v>0</v>
+      <c r="N936" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O936" t="s">
+        <v>1346</v>
+      </c>
+      <c r="P936" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q936" t="n">
+        <v>0.204495617085648</v>
+      </c>
+      <c r="R936" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S936" t="n">
+        <v>12.702913197830103</v>
+      </c>
+      <c r="T936" t="n">
+        <v>0.9629597089927776</v>
+      </c>
+      <c r="U936" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V936" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W936" t="s">
+        <v>1347</v>
+      </c>
+      <c r="X936" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="937" spans="1:14" x14ac:dyDescent="0.2">
@@ -65872,8 +68590,38 @@
       <c r="M937" t="s">
         <v>4</v>
       </c>
-      <c r="N937">
-        <v>0</v>
+      <c r="N937" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O937" t="s">
+        <v>1348</v>
+      </c>
+      <c r="P937" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q937" t="n">
+        <v>0.17541794214945838</v>
+      </c>
+      <c r="R937" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S937" t="n">
+        <v>5.27764528406957</v>
+      </c>
+      <c r="T937" t="n">
+        <v>0.9820207032140549</v>
+      </c>
+      <c r="U937" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V937" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W937" t="s">
+        <v>1349</v>
+      </c>
+      <c r="X937" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="938" spans="1:14" x14ac:dyDescent="0.2">
@@ -65916,8 +68664,38 @@
       <c r="M938" t="s">
         <v>4</v>
       </c>
-      <c r="N938">
-        <v>0</v>
+      <c r="N938" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O938" t="s">
+        <v>1350</v>
+      </c>
+      <c r="P938" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q938" t="n">
+        <v>0.23286811913505012</v>
+      </c>
+      <c r="R938" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S938" t="n">
+        <v>17.55658835599299</v>
+      </c>
+      <c r="T938" t="n">
+        <v>0.9594573001889415</v>
+      </c>
+      <c r="U938" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V938" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W938" t="s">
+        <v>1351</v>
+      </c>
+      <c r="X938" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="939" spans="1:14" x14ac:dyDescent="0.2">
@@ -65960,8 +68738,38 @@
       <c r="M939" t="s">
         <v>4</v>
       </c>
-      <c r="N939">
-        <v>0</v>
+      <c r="N939" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O939" t="s">
+        <v>1352</v>
+      </c>
+      <c r="P939" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q939" t="n">
+        <v>0.17543445824049542</v>
+      </c>
+      <c r="R939" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S939" t="n">
+        <v>14.293567285712182</v>
+      </c>
+      <c r="T939" t="n">
+        <v>0.9192114192119317</v>
+      </c>
+      <c r="U939" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V939" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W939" t="s">
+        <v>1353</v>
+      </c>
+      <c r="X939" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="940" spans="1:14" x14ac:dyDescent="0.2">
@@ -66004,8 +68812,38 @@
       <c r="M940" t="s">
         <v>4</v>
       </c>
-      <c r="N940">
-        <v>0</v>
+      <c r="N940" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O940" t="s">
+        <v>1354</v>
+      </c>
+      <c r="P940" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q940" t="n">
+        <v>0.15426040577819933</v>
+      </c>
+      <c r="R940" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S940" t="n">
+        <v>6.385245643637257</v>
+      </c>
+      <c r="T940" t="n">
+        <v>0.979964349041691</v>
+      </c>
+      <c r="U940" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V940" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W940" t="s">
+        <v>1355</v>
+      </c>
+      <c r="X940" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="941" spans="1:14" x14ac:dyDescent="0.2">
@@ -66048,8 +68886,38 @@
       <c r="M941" t="s">
         <v>4</v>
       </c>
-      <c r="N941">
-        <v>0</v>
+      <c r="N941" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O941" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P941" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q941" t="n">
+        <v>0.5915092879771962</v>
+      </c>
+      <c r="R941" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S941" t="n">
+        <v>43.19448842799014</v>
+      </c>
+      <c r="T941" t="n">
+        <v>0.9319340373523294</v>
+      </c>
+      <c r="U941" t="n">
+        <v>85.96491228070175</v>
+      </c>
+      <c r="V941" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W941" t="s">
+        <v>1357</v>
+      </c>
+      <c r="X941" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="942" spans="1:14" x14ac:dyDescent="0.2">
@@ -66092,8 +68960,38 @@
       <c r="M942" t="s">
         <v>4</v>
       </c>
-      <c r="N942">
-        <v>0</v>
+      <c r="N942" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O942" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P942" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q942" t="n">
+        <v>0.14510424098273766</v>
+      </c>
+      <c r="R942" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S942" t="n">
+        <v>7.864280967431597</v>
+      </c>
+      <c r="T942" t="n">
+        <v>0.9637422764399345</v>
+      </c>
+      <c r="U942" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V942" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W942" t="s">
+        <v>1359</v>
+      </c>
+      <c r="X942" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="943" spans="1:14" x14ac:dyDescent="0.2">
@@ -66136,8 +69034,38 @@
       <c r="M943" t="s">
         <v>4</v>
       </c>
-      <c r="N943">
-        <v>0</v>
+      <c r="N943" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O943" t="s">
+        <v>1360</v>
+      </c>
+      <c r="P943" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q943" t="n">
+        <v>0.23543570980896256</v>
+      </c>
+      <c r="R943" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S943" t="n">
+        <v>20.02452289486725</v>
+      </c>
+      <c r="T943" t="n">
+        <v>0.9418164910431566</v>
+      </c>
+      <c r="U943" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V943" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W943" t="s">
+        <v>1361</v>
+      </c>
+      <c r="X943" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="944" spans="1:14" x14ac:dyDescent="0.2">
@@ -66180,8 +69108,38 @@
       <c r="M944" t="s">
         <v>4</v>
       </c>
-      <c r="N944">
-        <v>0</v>
+      <c r="N944" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O944" t="s">
+        <v>1362</v>
+      </c>
+      <c r="P944" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q944" t="n">
+        <v>0.14495908168313854</v>
+      </c>
+      <c r="R944" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S944" t="n">
+        <v>6.1095141498594945</v>
+      </c>
+      <c r="T944" t="n">
+        <v>0.9833149547860685</v>
+      </c>
+      <c r="U944" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V944" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W944" t="s">
+        <v>1363</v>
+      </c>
+      <c r="X944" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="945" spans="1:14" x14ac:dyDescent="0.2">
@@ -66224,8 +69182,38 @@
       <c r="M945" t="s">
         <v>4</v>
       </c>
-      <c r="N945">
-        <v>0</v>
+      <c r="N945" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O945" t="s">
+        <v>1364</v>
+      </c>
+      <c r="P945" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q945" t="n">
+        <v>0.2382148116782723</v>
+      </c>
+      <c r="R945" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S945" t="n">
+        <v>9.3006048347757</v>
+      </c>
+      <c r="T945" t="n">
+        <v>0.9675258653451401</v>
+      </c>
+      <c r="U945" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V945" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W945" t="s">
+        <v>1365</v>
+      </c>
+      <c r="X945" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="946" spans="1:14" x14ac:dyDescent="0.2">
@@ -66268,8 +69256,38 @@
       <c r="M946" t="s">
         <v>4</v>
       </c>
-      <c r="N946">
-        <v>0</v>
+      <c r="N946" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O946" t="s">
+        <v>1366</v>
+      </c>
+      <c r="P946" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q946" t="n">
+        <v>0.1712479056341465</v>
+      </c>
+      <c r="R946" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S946" t="n">
+        <v>11.264001599970452</v>
+      </c>
+      <c r="T946" t="n">
+        <v>0.9587866802952453</v>
+      </c>
+      <c r="U946" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V946" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W946" t="s">
+        <v>1367</v>
+      </c>
+      <c r="X946" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="947" spans="1:14" x14ac:dyDescent="0.2">
@@ -66312,8 +69330,38 @@
       <c r="M947" t="s">
         <v>4</v>
       </c>
-      <c r="N947">
-        <v>0</v>
+      <c r="N947" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O947" t="s">
+        <v>1368</v>
+      </c>
+      <c r="P947" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q947" t="n">
+        <v>0.28152691717082057</v>
+      </c>
+      <c r="R947" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S947" t="n">
+        <v>18.141212511257205</v>
+      </c>
+      <c r="T947" t="n">
+        <v>0.9607831116326911</v>
+      </c>
+      <c r="U947" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V947" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W947" t="s">
+        <v>1369</v>
+      </c>
+      <c r="X947" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="948" spans="1:14" x14ac:dyDescent="0.2">
@@ -66356,8 +69404,38 @@
       <c r="M948" t="s">
         <v>4</v>
       </c>
-      <c r="N948">
-        <v>0</v>
+      <c r="N948" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O948" t="s">
+        <v>1370</v>
+      </c>
+      <c r="P948" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q948" t="n">
+        <v>0.5386121942151938</v>
+      </c>
+      <c r="R948" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S948" t="n">
+        <v>37.77584211214889</v>
+      </c>
+      <c r="T948" t="n">
+        <v>0.9441561714930977</v>
+      </c>
+      <c r="U948" t="n">
+        <v>90.05847953216374</v>
+      </c>
+      <c r="V948" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W948" t="s">
+        <v>1371</v>
+      </c>
+      <c r="X948" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="949" spans="1:14" x14ac:dyDescent="0.2">
@@ -66400,8 +69478,38 @@
       <c r="M949" t="s">
         <v>4</v>
       </c>
-      <c r="N949">
-        <v>0</v>
+      <c r="N949" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O949" t="s">
+        <v>1372</v>
+      </c>
+      <c r="P949" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q949" t="n">
+        <v>0.3962457798601289</v>
+      </c>
+      <c r="R949" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S949" t="n">
+        <v>104.1458555610656</v>
+      </c>
+      <c r="T949" t="n">
+        <v>0.8735662494690913</v>
+      </c>
+      <c r="U949" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V949" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W949" t="s">
+        <v>1373</v>
+      </c>
+      <c r="X949" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="950" spans="1:14" x14ac:dyDescent="0.2">
@@ -66444,8 +69552,38 @@
       <c r="M950" t="s">
         <v>4</v>
       </c>
-      <c r="N950">
-        <v>0</v>
+      <c r="N950" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O950" t="s">
+        <v>1374</v>
+      </c>
+      <c r="P950" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q950" t="n">
+        <v>0.3859504383301253</v>
+      </c>
+      <c r="R950" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S950" t="n">
+        <v>34.26165386351609</v>
+      </c>
+      <c r="T950" t="n">
+        <v>0.9308195946708023</v>
+      </c>
+      <c r="U950" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V950" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W950" t="s">
+        <v>1375</v>
+      </c>
+      <c r="X950" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="951" spans="1:14" x14ac:dyDescent="0.2">
@@ -66488,8 +69626,38 @@
       <c r="M951" t="s">
         <v>4</v>
       </c>
-      <c r="N951">
-        <v>0</v>
+      <c r="N951" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O951" t="s">
+        <v>1376</v>
+      </c>
+      <c r="P951" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q951" t="n">
+        <v>0.31768687978084564</v>
+      </c>
+      <c r="R951" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S951" t="n">
+        <v>46.889924074507675</v>
+      </c>
+      <c r="T951" t="n">
+        <v>0.9495822877785796</v>
+      </c>
+      <c r="U951" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V951" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W951" t="s">
+        <v>1377</v>
+      </c>
+      <c r="X951" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="952" spans="1:14" x14ac:dyDescent="0.2">
@@ -66532,8 +69700,38 @@
       <c r="M952" t="s">
         <v>4</v>
       </c>
-      <c r="N952">
-        <v>0</v>
+      <c r="N952" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O952" t="s">
+        <v>1378</v>
+      </c>
+      <c r="P952" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q952" t="n">
+        <v>0.4011436055835915</v>
+      </c>
+      <c r="R952" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="S952" t="n">
+        <v>33.29548226903247</v>
+      </c>
+      <c r="T952" t="n">
+        <v>0.958994924566575</v>
+      </c>
+      <c r="U952" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V952" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W952" t="s">
+        <v>1379</v>
+      </c>
+      <c r="X952" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="953" spans="1:14" x14ac:dyDescent="0.2">
@@ -66576,8 +69774,38 @@
       <c r="M953" t="s">
         <v>4</v>
       </c>
-      <c r="N953">
-        <v>0</v>
+      <c r="N953" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O953" t="s">
+        <v>1380</v>
+      </c>
+      <c r="P953" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q953" t="n">
+        <v>0.3429178143120879</v>
+      </c>
+      <c r="R953" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S953" t="n">
+        <v>25.75783923002362</v>
+      </c>
+      <c r="T953" t="n">
+        <v>0.968336105386097</v>
+      </c>
+      <c r="U953" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V953" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W953" t="s">
+        <v>1381</v>
+      </c>
+      <c r="X953" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="954" spans="1:14" x14ac:dyDescent="0.2">
@@ -66620,8 +69848,38 @@
       <c r="M954" t="s">
         <v>4</v>
       </c>
-      <c r="N954">
-        <v>0</v>
+      <c r="N954" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O954" t="s">
+        <v>1382</v>
+      </c>
+      <c r="P954" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q954" t="n">
+        <v>0.2504195661767934</v>
+      </c>
+      <c r="R954" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S954" t="n">
+        <v>9.17095289868868</v>
+      </c>
+      <c r="T954" t="n">
+        <v>0.9640802621738648</v>
+      </c>
+      <c r="U954" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V954" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W954" t="s">
+        <v>1383</v>
+      </c>
+      <c r="X954" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="955" spans="1:14" x14ac:dyDescent="0.2">
@@ -66664,8 +69922,38 @@
       <c r="M955" t="s">
         <v>4</v>
       </c>
-      <c r="N955">
-        <v>0</v>
+      <c r="N955" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O955" t="s">
+        <v>1385</v>
+      </c>
+      <c r="P955" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q955" t="n">
+        <v>0.7078247269276225</v>
+      </c>
+      <c r="R955" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S955" t="n">
+        <v>32.2639901531432</v>
+      </c>
+      <c r="T955" t="n">
+        <v>0.9253821404180368</v>
+      </c>
+      <c r="U955" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="V955" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W955" t="s">
+        <v>1386</v>
+      </c>
+      <c r="X955" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="956" spans="1:14" x14ac:dyDescent="0.2">
@@ -66708,8 +69996,38 @@
       <c r="M956" t="s">
         <v>4</v>
       </c>
-      <c r="N956">
-        <v>0</v>
+      <c r="N956" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O956" t="s">
+        <v>1387</v>
+      </c>
+      <c r="P956" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q956" t="n">
+        <v>0.26640668012367996</v>
+      </c>
+      <c r="R956" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="S956" t="n">
+        <v>16.6206703995318</v>
+      </c>
+      <c r="T956" t="n">
+        <v>0.9522894695969689</v>
+      </c>
+      <c r="U956" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V956" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W956" t="s">
+        <v>1388</v>
+      </c>
+      <c r="X956" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="957" spans="1:14" x14ac:dyDescent="0.2">
@@ -66752,8 +70070,38 @@
       <c r="M957" t="s">
         <v>4</v>
       </c>
-      <c r="N957">
-        <v>0</v>
+      <c r="N957" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O957" t="s">
+        <v>1389</v>
+      </c>
+      <c r="P957" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q957" t="n">
+        <v>0.316194441826255</v>
+      </c>
+      <c r="R957" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S957" t="n">
+        <v>37.18005320677657</v>
+      </c>
+      <c r="T957" t="n">
+        <v>0.930880931487718</v>
+      </c>
+      <c r="U957" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V957" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W957" t="s">
+        <v>1390</v>
+      </c>
+      <c r="X957" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="958" spans="1:14" x14ac:dyDescent="0.2">
@@ -66796,8 +70144,38 @@
       <c r="M958" t="s">
         <v>4</v>
       </c>
-      <c r="N958">
-        <v>0</v>
+      <c r="N958" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O958" t="s">
+        <v>1391</v>
+      </c>
+      <c r="P958" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q958" t="n">
+        <v>0.24999822933232174</v>
+      </c>
+      <c r="R958" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S958" t="n">
+        <v>10.980896695549857</v>
+      </c>
+      <c r="T958" t="n">
+        <v>0.9726596554482568</v>
+      </c>
+      <c r="U958" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V958" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W958" t="s">
+        <v>1392</v>
+      </c>
+      <c r="X958" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="959" spans="1:14" x14ac:dyDescent="0.2">
@@ -66840,8 +70218,38 @@
       <c r="M959" t="s">
         <v>4</v>
       </c>
-      <c r="N959">
-        <v>0</v>
+      <c r="N959" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O959" t="s">
+        <v>1393</v>
+      </c>
+      <c r="P959" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q959" t="n">
+        <v>0.2973589402336039</v>
+      </c>
+      <c r="R959" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="S959" t="n">
+        <v>14.378943595948828</v>
+      </c>
+      <c r="T959" t="n">
+        <v>0.957736615750696</v>
+      </c>
+      <c r="U959" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V959" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W959" t="s">
+        <v>1394</v>
+      </c>
+      <c r="X959" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="960" spans="1:14" x14ac:dyDescent="0.2">
@@ -66884,8 +70292,38 @@
       <c r="M960" t="s">
         <v>4</v>
       </c>
-      <c r="N960">
-        <v>0</v>
+      <c r="N960" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O960" t="s">
+        <v>1395</v>
+      </c>
+      <c r="P960" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q960" t="n">
+        <v>0.22933147961743927</v>
+      </c>
+      <c r="R960" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S960" t="n">
+        <v>21.265872038741286</v>
+      </c>
+      <c r="T960" t="n">
+        <v>0.9401033525162685</v>
+      </c>
+      <c r="U960" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V960" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W960" t="s">
+        <v>1396</v>
+      </c>
+      <c r="X960" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="961" spans="1:14" x14ac:dyDescent="0.2">
@@ -66928,8 +70366,38 @@
       <c r="M961" t="s">
         <v>4</v>
       </c>
-      <c r="N961">
-        <v>0</v>
+      <c r="N961" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O961" t="s">
+        <v>1397</v>
+      </c>
+      <c r="P961" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q961" t="n">
+        <v>0.182362808563461</v>
+      </c>
+      <c r="R961" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S961" t="n">
+        <v>9.526414430891242</v>
+      </c>
+      <c r="T961" t="n">
+        <v>0.957367680067632</v>
+      </c>
+      <c r="U961" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V961" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W961" t="s">
+        <v>1398</v>
+      </c>
+      <c r="X961" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="962" spans="1:14" x14ac:dyDescent="0.2">
@@ -66972,8 +70440,38 @@
       <c r="M962" t="s">
         <v>4</v>
       </c>
-      <c r="N962">
-        <v>0</v>
+      <c r="N962" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O962" t="s">
+        <v>1399</v>
+      </c>
+      <c r="P962" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q962" t="n">
+        <v>0.533077884677633</v>
+      </c>
+      <c r="R962" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S962" t="n">
+        <v>27.503142308408133</v>
+      </c>
+      <c r="T962" t="n">
+        <v>0.9797316450111151</v>
+      </c>
+      <c r="U962" t="n">
+        <v>91.81286549707602</v>
+      </c>
+      <c r="V962" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W962" t="s">
+        <v>1400</v>
+      </c>
+      <c r="X962" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="963" spans="1:14" x14ac:dyDescent="0.2">
@@ -67016,8 +70514,38 @@
       <c r="M963" t="s">
         <v>4</v>
       </c>
-      <c r="N963">
-        <v>0</v>
+      <c r="N963" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O963" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P963" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q963" t="n">
+        <v>0.2068611141798069</v>
+      </c>
+      <c r="R963" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S963" t="n">
+        <v>15.079843940088377</v>
+      </c>
+      <c r="T963" t="n">
+        <v>0.9549093159349109</v>
+      </c>
+      <c r="U963" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V963" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W963" t="s">
+        <v>1402</v>
+      </c>
+      <c r="X963" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="964" spans="1:14" x14ac:dyDescent="0.2">
@@ -67060,8 +70588,38 @@
       <c r="M964" t="s">
         <v>4</v>
       </c>
-      <c r="N964">
-        <v>0</v>
+      <c r="N964" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O964" t="s">
+        <v>1403</v>
+      </c>
+      <c r="P964" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q964" t="n">
+        <v>0.20553999068294182</v>
+      </c>
+      <c r="R964" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S964" t="n">
+        <v>11.83882759751736</v>
+      </c>
+      <c r="T964" t="n">
+        <v>0.9671190368836622</v>
+      </c>
+      <c r="U964" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V964" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W964" t="s">
+        <v>1404</v>
+      </c>
+      <c r="X964" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="965" spans="1:14" x14ac:dyDescent="0.2">
@@ -67104,8 +70662,38 @@
       <c r="M965" t="s">
         <v>4</v>
       </c>
-      <c r="N965">
-        <v>0</v>
+      <c r="N965" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O965" t="s">
+        <v>1405</v>
+      </c>
+      <c r="P965" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q965" t="n">
+        <v>0.18110294666252535</v>
+      </c>
+      <c r="R965" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S965" t="n">
+        <v>14.544584110023564</v>
+      </c>
+      <c r="T965" t="n">
+        <v>0.9631849378304745</v>
+      </c>
+      <c r="U965" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V965" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W965" t="s">
+        <v>1406</v>
+      </c>
+      <c r="X965" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="966" spans="1:14" x14ac:dyDescent="0.2">
@@ -67148,8 +70736,38 @@
       <c r="M966" t="s">
         <v>4</v>
       </c>
-      <c r="N966">
-        <v>0</v>
+      <c r="N966" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O966" t="s">
+        <v>1407</v>
+      </c>
+      <c r="P966" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q966" t="n">
+        <v>0.24844559019582135</v>
+      </c>
+      <c r="R966" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S966" t="n">
+        <v>16.31218986427205</v>
+      </c>
+      <c r="T966" t="n">
+        <v>0.944031414308684</v>
+      </c>
+      <c r="U966" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V966" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W966" t="s">
+        <v>1408</v>
+      </c>
+      <c r="X966" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="967" spans="1:14" x14ac:dyDescent="0.2">
@@ -67192,8 +70810,38 @@
       <c r="M967" t="s">
         <v>4</v>
       </c>
-      <c r="N967">
-        <v>0</v>
+      <c r="N967" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O967" t="s">
+        <v>1409</v>
+      </c>
+      <c r="P967" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q967" t="n">
+        <v>0.17478528313771946</v>
+      </c>
+      <c r="R967" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S967" t="n">
+        <v>6.814256206487769</v>
+      </c>
+      <c r="T967" t="n">
+        <v>0.9683279414908905</v>
+      </c>
+      <c r="U967" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V967" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W967" t="s">
+        <v>1410</v>
+      </c>
+      <c r="X967" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="968" spans="1:14" x14ac:dyDescent="0.2">
@@ -67236,8 +70884,38 @@
       <c r="M968" t="s">
         <v>4</v>
       </c>
-      <c r="N968">
-        <v>0</v>
+      <c r="N968" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O968" t="s">
+        <v>1411</v>
+      </c>
+      <c r="P968" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q968" t="n">
+        <v>0.1724374494957619</v>
+      </c>
+      <c r="R968" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S968" t="n">
+        <v>5.564887130556488</v>
+      </c>
+      <c r="T968" t="n">
+        <v>0.9818259427770043</v>
+      </c>
+      <c r="U968" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V968" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W968" t="s">
+        <v>1412</v>
+      </c>
+      <c r="X968" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="969" spans="1:14" x14ac:dyDescent="0.2">
@@ -67280,8 +70958,38 @@
       <c r="M969" t="s">
         <v>4</v>
       </c>
-      <c r="N969">
-        <v>0</v>
+      <c r="N969" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O969" t="s">
+        <v>1413</v>
+      </c>
+      <c r="P969" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q969" t="n">
+        <v>0.5783553756143505</v>
+      </c>
+      <c r="R969" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S969" t="n">
+        <v>33.52974588781588</v>
+      </c>
+      <c r="T969" t="n">
+        <v>0.9389703712631642</v>
+      </c>
+      <c r="U969" t="n">
+        <v>90.05847953216374</v>
+      </c>
+      <c r="V969" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W969" t="s">
+        <v>1414</v>
+      </c>
+      <c r="X969" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="970" spans="1:14" x14ac:dyDescent="0.2">
@@ -67324,8 +71032,38 @@
       <c r="M970" t="s">
         <v>4</v>
       </c>
-      <c r="N970">
-        <v>0</v>
+      <c r="N970" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O970" t="s">
+        <v>1415</v>
+      </c>
+      <c r="P970" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q970" t="n">
+        <v>0.1684311912040748</v>
+      </c>
+      <c r="R970" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S970" t="n">
+        <v>9.519043109791532</v>
+      </c>
+      <c r="T970" t="n">
+        <v>0.9686172961432166</v>
+      </c>
+      <c r="U970" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V970" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W970" t="s">
+        <v>1416</v>
+      </c>
+      <c r="X970" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="971" spans="1:14" x14ac:dyDescent="0.2">
@@ -67368,8 +71106,38 @@
       <c r="M971" t="s">
         <v>4</v>
       </c>
-      <c r="N971">
-        <v>0</v>
+      <c r="N971" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O971" t="s">
+        <v>1417</v>
+      </c>
+      <c r="P971" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q971" t="n">
+        <v>0.22645512935652157</v>
+      </c>
+      <c r="R971" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S971" t="n">
+        <v>10.080247630566598</v>
+      </c>
+      <c r="T971" t="n">
+        <v>0.9741209912308841</v>
+      </c>
+      <c r="U971" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V971" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W971" t="s">
+        <v>1418</v>
+      </c>
+      <c r="X971" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="972" spans="1:14" x14ac:dyDescent="0.2">
@@ -67412,8 +71180,38 @@
       <c r="M972" t="s">
         <v>4</v>
       </c>
-      <c r="N972">
-        <v>0</v>
+      <c r="N972" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O972" t="s">
+        <v>1419</v>
+      </c>
+      <c r="P972" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q972" t="n">
+        <v>0.13321778082198676</v>
+      </c>
+      <c r="R972" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S972" t="n">
+        <v>4.4976418775270375</v>
+      </c>
+      <c r="T972" t="n">
+        <v>0.96706925937169</v>
+      </c>
+      <c r="U972" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V972" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W972" t="s">
+        <v>1420</v>
+      </c>
+      <c r="X972" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="973" spans="1:14" x14ac:dyDescent="0.2">
@@ -67456,8 +71254,38 @@
       <c r="M973" t="s">
         <v>4</v>
       </c>
-      <c r="N973">
-        <v>0</v>
+      <c r="N973" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O973" t="s">
+        <v>1421</v>
+      </c>
+      <c r="P973" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q973" t="n">
+        <v>0.23811888640497614</v>
+      </c>
+      <c r="R973" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S973" t="n">
+        <v>11.297692237621733</v>
+      </c>
+      <c r="T973" t="n">
+        <v>0.9674410609083645</v>
+      </c>
+      <c r="U973" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V973" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W973" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X973" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="974" spans="1:14" x14ac:dyDescent="0.2">
@@ -67500,8 +71328,38 @@
       <c r="M974" t="s">
         <v>4</v>
       </c>
-      <c r="N974">
-        <v>0</v>
+      <c r="N974" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O974" t="s">
+        <v>1423</v>
+      </c>
+      <c r="P974" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q974" t="n">
+        <v>0.17864525363033223</v>
+      </c>
+      <c r="R974" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S974" t="n">
+        <v>7.345527176891274</v>
+      </c>
+      <c r="T974" t="n">
+        <v>0.960546786198473</v>
+      </c>
+      <c r="U974" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V974" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W974" t="s">
+        <v>1424</v>
+      </c>
+      <c r="X974" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="975" spans="1:14" x14ac:dyDescent="0.2">
@@ -67544,8 +71402,38 @@
       <c r="M975" t="s">
         <v>4</v>
       </c>
-      <c r="N975">
-        <v>0</v>
+      <c r="N975" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O975" t="s">
+        <v>1425</v>
+      </c>
+      <c r="P975" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q975" t="n">
+        <v>0.30751087853796477</v>
+      </c>
+      <c r="R975" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S975" t="n">
+        <v>16.506495675508823</v>
+      </c>
+      <c r="T975" t="n">
+        <v>0.970007169064326</v>
+      </c>
+      <c r="U975" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V975" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W975" t="s">
+        <v>1426</v>
+      </c>
+      <c r="X975" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="976" spans="1:14" x14ac:dyDescent="0.2">
@@ -67590,6 +71478,18 @@
       </c>
       <c r="N976">
         <v>0</v>
+      </c>
+      <c r="O976" t="s">
+        <v>1427</v>
+      </c>
+      <c r="P976" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q976" t="n">
+        <v>0.5633298654334951</v>
+      </c>
+      <c r="W976" t="s">
+        <v>1428</v>
       </c>
     </row>
     <row r="977" spans="1:14" x14ac:dyDescent="0.2">

--- a/PaperNeural/ExperimentsConfigMar2017_23-Mar-2017_pcbiolab_p1_tsne.xlsx
+++ b/PaperNeural/ExperimentsConfigMar2017_23-Mar-2017_pcbiolab_p1_tsne.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9442" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9921" uniqueCount="1755">
   <si>
     <t>WorkFolder</t>
   </si>
@@ -4321,6 +4321,984 @@
   </si>
   <si>
     <t>T4_Rest_t-SNE_IF_16-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 11:37:23</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_17-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 12:50:24</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_17-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 12:52:08</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_17-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 13:57:12</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_17-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 13:58:52</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_17-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 15:03:38</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_17-Apr-2017_MI_5000_LR_400_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 15:47:40</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_17-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_1000_LR_500_PE_16.xlsx</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 15:50:35</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_17-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 17:27:27</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_17-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 17:31:30</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_17-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 19:22:12</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_17-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 19:26:16</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_17-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 21:29:21</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_17-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 22:53:54</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_17-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>17-Apr-2017 22:55:28</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_17-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 00:00:23</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 00:02:04</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 00:53:19</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 00:55:14</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 02:26:18</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 03:06:12</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 03:07:48</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 04:05:33</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 04:07:35</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 04:51:22</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 04:53:04</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 05:58:00</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 06:31:18</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 06:32:46</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 07:47:27</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 07:49:09</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 08:41:34</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 08:43:11</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 09:47:51</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_18-Apr-2017_MI_1000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 10:22:35</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_2000_LR_500_PE_16.xlsx</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 10:24:17</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 12:01:22</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 12:05:11</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 13:42:24</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 13:45:44</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 15:38:49</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 16:54:09</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 16:55:48</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 18:02:37</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 18:04:43</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 18:57:24</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 18:59:15</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 20:04:04</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 20:47:48</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 20:49:26</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 21:47:20</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 21:49:00</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 22:34:42</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 22:36:23</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>18-Apr-2017 23:41:29</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_18-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 00:14:45</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_19-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 00:16:12</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_19-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 01:30:42</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_19-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 01:32:26</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_19-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 02:24:43</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_19-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 02:26:22</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_19-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 03:41:27</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_19-Apr-2017_MI_2000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 04:16:02</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_3000_LR_500_PE_16.xlsx</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 04:18:03</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 05:54:40</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 05:58:23</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 07:35:23</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 07:40:10</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 09:46:25</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 11:01:49</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 11:03:26</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 12:10:33</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 12:12:39</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 13:05:13</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 13:07:33</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 14:13:04</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 14:47:51</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 14:49:27</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 15:54:12</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 15:56:24</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 16:42:35</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 16:44:21</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 17:42:25</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 18:17:25</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 18:18:54</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 19:34:00</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 19:35:53</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 20:42:54</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 20:44:33</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 22:08:43</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_19-Apr-2017_MI_3000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 22:36:56</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_19-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_4000_LR_500_PE_16.xlsx</t>
+  </si>
+  <si>
+    <t>19-Apr-2017 22:39:14</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_19-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 00:09:38</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 00:13:49</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 01:51:13</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 01:55:19</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 03:58:36</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 05:13:55</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 05:15:34</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 06:22:13</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 06:24:25</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 07:29:57</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 07:32:04</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 08:47:34</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 09:31:45</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 09:33:25</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 10:31:15</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 10:33:25</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 11:19:32</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 11:21:18</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 12:14:01</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 12:43:33</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 12:45:04</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 14:00:19</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 14:02:18</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 14:55:00</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 14:56:40</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 16:12:02</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_20-Apr-2017_MI_4000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 16:51:17</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_20-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_5000_LR_500_PE_16.xlsx</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 16:53:37</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_20-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 18:29:51</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_20-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 18:34:25</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_20-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 20:02:27</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_20-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 20:06:34</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_20-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 22:09:43</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_20-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 23:25:09</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_20-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>20-Apr-2017 23:26:49</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_20-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 00:33:35</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 00:35:29</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 01:28:15</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 01:30:14</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 02:37:28</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 03:21:24</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 03:23:03</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 04:21:29</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IA_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 04:23:46</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 05:08:20</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IA_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 05:10:36</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_IF-IA_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 06:09:09</t>
+  </si>
+  <si>
+    <t>T3_Supination and pronation_t-SNE_FS-IF-IA_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 06:42:58</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 06:44:56</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 07:52:13</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IA_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 07:54:27</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 08:47:28</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IA_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 08:49:43</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_IF-IA_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 09:54:14</t>
+  </si>
+  <si>
+    <t>T4_Rest_t-SNE_FS-IF-IA_21-Apr-2017_MI_5000_LR_500_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 10:34:38</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS_21-Apr-2017_MI_1000_LR_600_PE_16</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-t-SNE_MI_1000_LR_600_PE_16.xlsx</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 10:36:54</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF_21-Apr-2017_MI_1000_LR_600_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 12:14:07</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IA_21-Apr-2017_MI_1000_LR_600_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 12:19:23</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF_21-Apr-2017_MI_1000_LR_600_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 13:57:12</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IA_21-Apr-2017_MI_1000_LR_600_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 14:01:13</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_IF-IA_21-Apr-2017_MI_1000_LR_600_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 16:05:07</t>
+  </si>
+  <si>
+    <t>T1_Finger taps_t-SNE_FS-IF-IA_21-Apr-2017_MI_1000_LR_600_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 17:20:43</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS_21-Apr-2017_MI_1000_LR_600_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 17:22:48</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF_21-Apr-2017_MI_1000_LR_600_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 18:30:01</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IA_21-Apr-2017_MI_1000_LR_600_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 18:32:42</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF_21-Apr-2017_MI_1000_LR_600_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 19:25:37</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IA_21-Apr-2017_MI_1000_LR_600_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 19:28:17</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_IF-IA_21-Apr-2017_MI_1000_LR_600_PE_16</t>
+  </si>
+  <si>
+    <t>21-Apr-2017 20:34:04</t>
+  </si>
+  <si>
+    <t>T2_Finger to nose_t-SNE_FS-IF-IA_21-Apr-2017_MI_1000_LR_600_PE_16</t>
   </si>
 </sst>
 </file>
@@ -71476,20 +72454,38 @@
       <c r="M976" t="s">
         <v>4</v>
       </c>
-      <c r="N976">
-        <v>0</v>
+      <c r="N976" t="n">
+        <v>1.0</v>
       </c>
       <c r="O976" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="P976" t="n">
         <v>-1.0</v>
       </c>
       <c r="Q976" t="n">
-        <v>0.5633298654334951</v>
+        <v>0.5175058455455535</v>
+      </c>
+      <c r="R976" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S976" t="n">
+        <v>50.386090520062815</v>
+      </c>
+      <c r="T976" t="n">
+        <v>0.9146474158304296</v>
+      </c>
+      <c r="U976" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="V976" t="n">
+        <v>84.21052631578948</v>
       </c>
       <c r="W976" t="s">
-        <v>1428</v>
+        <v>1430</v>
+      </c>
+      <c r="X976" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="977" spans="1:14" x14ac:dyDescent="0.2">
@@ -71532,8 +72528,38 @@
       <c r="M977" t="s">
         <v>4</v>
       </c>
-      <c r="N977">
-        <v>0</v>
+      <c r="N977" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O977" t="s">
+        <v>1431</v>
+      </c>
+      <c r="P977" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q977" t="n">
+        <v>0.3436155949582531</v>
+      </c>
+      <c r="R977" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S977" t="n">
+        <v>50.40833415202444</v>
+      </c>
+      <c r="T977" t="n">
+        <v>0.942681017160682</v>
+      </c>
+      <c r="U977" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V977" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W977" t="s">
+        <v>1432</v>
+      </c>
+      <c r="X977" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="978" spans="1:14" x14ac:dyDescent="0.2">
@@ -71576,8 +72602,38 @@
       <c r="M978" t="s">
         <v>4</v>
       </c>
-      <c r="N978">
-        <v>0</v>
+      <c r="N978" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O978" t="s">
+        <v>1433</v>
+      </c>
+      <c r="P978" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q978" t="n">
+        <v>0.37711454377197917</v>
+      </c>
+      <c r="R978" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S978" t="n">
+        <v>20.25750450417228</v>
+      </c>
+      <c r="T978" t="n">
+        <v>0.9590282695179696</v>
+      </c>
+      <c r="U978" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V978" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W978" t="s">
+        <v>1434</v>
+      </c>
+      <c r="X978" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="979" spans="1:14" x14ac:dyDescent="0.2">
@@ -71620,8 +72676,38 @@
       <c r="M979" t="s">
         <v>4</v>
       </c>
-      <c r="N979">
-        <v>0</v>
+      <c r="N979" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O979" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P979" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q979" t="n">
+        <v>0.3128443760626727</v>
+      </c>
+      <c r="R979" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S979" t="n">
+        <v>36.57278446226582</v>
+      </c>
+      <c r="T979" t="n">
+        <v>0.94365145616566</v>
+      </c>
+      <c r="U979" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V979" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W979" t="s">
+        <v>1436</v>
+      </c>
+      <c r="X979" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="980" spans="1:14" x14ac:dyDescent="0.2">
@@ -71664,8 +72750,38 @@
       <c r="M980" t="s">
         <v>4</v>
       </c>
-      <c r="N980">
-        <v>0</v>
+      <c r="N980" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O980" t="s">
+        <v>1437</v>
+      </c>
+      <c r="P980" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q980" t="n">
+        <v>0.37755567096957776</v>
+      </c>
+      <c r="R980" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S980" t="n">
+        <v>59.52254401468675</v>
+      </c>
+      <c r="T980" t="n">
+        <v>0.9077636668303019</v>
+      </c>
+      <c r="U980" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V980" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W980" t="s">
+        <v>1438</v>
+      </c>
+      <c r="X980" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="981" spans="1:14" x14ac:dyDescent="0.2">
@@ -71708,8 +72824,38 @@
       <c r="M981" t="s">
         <v>4</v>
       </c>
-      <c r="N981">
-        <v>0</v>
+      <c r="N981" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O981" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P981" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q981" t="n">
+        <v>0.34020161694056306</v>
+      </c>
+      <c r="R981" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S981" t="n">
+        <v>17.805850748007316</v>
+      </c>
+      <c r="T981" t="n">
+        <v>0.9551997255432421</v>
+      </c>
+      <c r="U981" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V981" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W981" t="s">
+        <v>1440</v>
+      </c>
+      <c r="X981" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="982" spans="1:14" x14ac:dyDescent="0.2">
@@ -71752,8 +72898,38 @@
       <c r="M982" t="s">
         <v>4</v>
       </c>
-      <c r="N982">
-        <v>0</v>
+      <c r="N982" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O982" t="s">
+        <v>1441</v>
+      </c>
+      <c r="P982" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q982" t="n">
+        <v>0.24516415231800615</v>
+      </c>
+      <c r="R982" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S982" t="n">
+        <v>18.461718127057853</v>
+      </c>
+      <c r="T982" t="n">
+        <v>0.9512976872933978</v>
+      </c>
+      <c r="U982" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V982" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W982" t="s">
+        <v>1442</v>
+      </c>
+      <c r="X982" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="983" spans="1:14" x14ac:dyDescent="0.2">
@@ -71796,8 +72972,38 @@
       <c r="M983" t="s">
         <v>4</v>
       </c>
-      <c r="N983">
-        <v>0</v>
+      <c r="N983" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O983" t="s">
+        <v>1444</v>
+      </c>
+      <c r="P983" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q983" t="n">
+        <v>0.7034318984390513</v>
+      </c>
+      <c r="R983" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S983" t="n">
+        <v>27.220102707530707</v>
+      </c>
+      <c r="T983" t="n">
+        <v>0.857361677481093</v>
+      </c>
+      <c r="U983" t="n">
+        <v>85.96491228070175</v>
+      </c>
+      <c r="V983" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W983" t="s">
+        <v>1445</v>
+      </c>
+      <c r="X983" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="984" spans="1:14" x14ac:dyDescent="0.2">
@@ -71840,8 +73046,38 @@
       <c r="M984" t="s">
         <v>4</v>
       </c>
-      <c r="N984">
-        <v>0</v>
+      <c r="N984" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O984" t="s">
+        <v>1446</v>
+      </c>
+      <c r="P984" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q984" t="n">
+        <v>0.2791180063545067</v>
+      </c>
+      <c r="R984" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S984" t="n">
+        <v>17.587634988732173</v>
+      </c>
+      <c r="T984" t="n">
+        <v>0.94153869795229</v>
+      </c>
+      <c r="U984" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V984" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W984" t="s">
+        <v>1447</v>
+      </c>
+      <c r="X984" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="985" spans="1:14" x14ac:dyDescent="0.2">
@@ -71884,8 +73120,38 @@
       <c r="M985" t="s">
         <v>4</v>
       </c>
-      <c r="N985">
-        <v>0</v>
+      <c r="N985" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O985" t="s">
+        <v>1448</v>
+      </c>
+      <c r="P985" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q985" t="n">
+        <v>0.27308863580213405</v>
+      </c>
+      <c r="R985" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="S985" t="n">
+        <v>24.600208121838357</v>
+      </c>
+      <c r="T985" t="n">
+        <v>0.9392722972867985</v>
+      </c>
+      <c r="U985" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V985" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W985" t="s">
+        <v>1449</v>
+      </c>
+      <c r="X985" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="986" spans="1:14" x14ac:dyDescent="0.2">
@@ -71928,8 +73194,38 @@
       <c r="M986" t="s">
         <v>4</v>
       </c>
-      <c r="N986">
-        <v>0</v>
+      <c r="N986" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O986" t="s">
+        <v>1450</v>
+      </c>
+      <c r="P986" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q986" t="n">
+        <v>0.24081594558395025</v>
+      </c>
+      <c r="R986" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S986" t="n">
+        <v>14.729474241111584</v>
+      </c>
+      <c r="T986" t="n">
+        <v>0.9504541789286273</v>
+      </c>
+      <c r="U986" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V986" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W986" t="s">
+        <v>1451</v>
+      </c>
+      <c r="X986" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="987" spans="1:14" x14ac:dyDescent="0.2">
@@ -71972,8 +73268,38 @@
       <c r="M987" t="s">
         <v>4</v>
       </c>
-      <c r="N987">
-        <v>0</v>
+      <c r="N987" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O987" t="s">
+        <v>1452</v>
+      </c>
+      <c r="P987" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q987" t="n">
+        <v>0.28534605949294445</v>
+      </c>
+      <c r="R987" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S987" t="n">
+        <v>17.153827433936026</v>
+      </c>
+      <c r="T987" t="n">
+        <v>0.9539879176944696</v>
+      </c>
+      <c r="U987" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V987" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W987" t="s">
+        <v>1453</v>
+      </c>
+      <c r="X987" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="988" spans="1:14" x14ac:dyDescent="0.2">
@@ -72016,8 +73342,38 @@
       <c r="M988" t="s">
         <v>4</v>
       </c>
-      <c r="N988">
-        <v>0</v>
+      <c r="N988" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O988" t="s">
+        <v>1454</v>
+      </c>
+      <c r="P988" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q988" t="n">
+        <v>0.2565655471854189</v>
+      </c>
+      <c r="R988" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="S988" t="n">
+        <v>22.023994561996126</v>
+      </c>
+      <c r="T988" t="n">
+        <v>0.9161873878972864</v>
+      </c>
+      <c r="U988" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V988" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W988" t="s">
+        <v>1455</v>
+      </c>
+      <c r="X988" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="989" spans="1:14" x14ac:dyDescent="0.2">
@@ -72060,8 +73416,38 @@
       <c r="M989" t="s">
         <v>4</v>
       </c>
-      <c r="N989">
-        <v>0</v>
+      <c r="N989" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O989" t="s">
+        <v>1456</v>
+      </c>
+      <c r="P989" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q989" t="n">
+        <v>0.17281447224135427</v>
+      </c>
+      <c r="R989" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S989" t="n">
+        <v>6.877249191835438</v>
+      </c>
+      <c r="T989" t="n">
+        <v>0.967974115861428</v>
+      </c>
+      <c r="U989" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V989" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W989" t="s">
+        <v>1457</v>
+      </c>
+      <c r="X989" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="990" spans="1:14" x14ac:dyDescent="0.2">
@@ -72104,8 +73490,38 @@
       <c r="M990" t="s">
         <v>4</v>
       </c>
-      <c r="N990">
-        <v>0</v>
+      <c r="N990" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O990" t="s">
+        <v>1458</v>
+      </c>
+      <c r="P990" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>0.4902081653590198</v>
+      </c>
+      <c r="R990" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S990" t="n">
+        <v>38.02654945381422</v>
+      </c>
+      <c r="T990" t="n">
+        <v>0.929514318090352</v>
+      </c>
+      <c r="U990" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="V990" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W990" t="s">
+        <v>1459</v>
+      </c>
+      <c r="X990" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="991" spans="1:14" x14ac:dyDescent="0.2">
@@ -72148,8 +73564,38 @@
       <c r="M991" t="s">
         <v>4</v>
       </c>
-      <c r="N991">
-        <v>0</v>
+      <c r="N991" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O991" t="s">
+        <v>1460</v>
+      </c>
+      <c r="P991" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>0.18921297650619984</v>
+      </c>
+      <c r="R991" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S991" t="n">
+        <v>13.443776506572064</v>
+      </c>
+      <c r="T991" t="n">
+        <v>0.9624221582324385</v>
+      </c>
+      <c r="U991" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V991" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W991" t="s">
+        <v>1461</v>
+      </c>
+      <c r="X991" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="992" spans="1:14" x14ac:dyDescent="0.2">
@@ -72192,8 +73638,38 @@
       <c r="M992" t="s">
         <v>4</v>
       </c>
-      <c r="N992">
-        <v>0</v>
+      <c r="N992" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O992" t="s">
+        <v>1462</v>
+      </c>
+      <c r="P992" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>0.1960341527409497</v>
+      </c>
+      <c r="R992" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S992" t="n">
+        <v>14.515641921864301</v>
+      </c>
+      <c r="T992" t="n">
+        <v>0.9585135256441598</v>
+      </c>
+      <c r="U992" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V992" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W992" t="s">
+        <v>1463</v>
+      </c>
+      <c r="X992" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="993" spans="1:14" x14ac:dyDescent="0.2">
@@ -72236,8 +73712,38 @@
       <c r="M993" t="s">
         <v>4</v>
       </c>
-      <c r="N993">
-        <v>0</v>
+      <c r="N993" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O993" t="s">
+        <v>1464</v>
+      </c>
+      <c r="P993" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q993" t="n">
+        <v>0.16455841434875218</v>
+      </c>
+      <c r="R993" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S993" t="n">
+        <v>9.361991513048665</v>
+      </c>
+      <c r="T993" t="n">
+        <v>0.9711953322588208</v>
+      </c>
+      <c r="U993" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V993" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W993" t="s">
+        <v>1465</v>
+      </c>
+      <c r="X993" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="994" spans="1:14" x14ac:dyDescent="0.2">
@@ -72280,8 +73786,38 @@
       <c r="M994" t="s">
         <v>4</v>
       </c>
-      <c r="N994">
-        <v>0</v>
+      <c r="N994" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O994" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P994" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>0.23083075344982973</v>
+      </c>
+      <c r="R994" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="S994" t="n">
+        <v>20.443522579852214</v>
+      </c>
+      <c r="T994" t="n">
+        <v>0.94549980056039</v>
+      </c>
+      <c r="U994" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V994" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W994" t="s">
+        <v>1467</v>
+      </c>
+      <c r="X994" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="995" spans="1:14" x14ac:dyDescent="0.2">
@@ -72324,8 +73860,38 @@
       <c r="M995" t="s">
         <v>4</v>
       </c>
-      <c r="N995">
-        <v>0</v>
+      <c r="N995" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O995" t="s">
+        <v>1468</v>
+      </c>
+      <c r="P995" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>0.19314455607504577</v>
+      </c>
+      <c r="R995" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S995" t="n">
+        <v>11.560168937394998</v>
+      </c>
+      <c r="T995" t="n">
+        <v>0.9569311377774677</v>
+      </c>
+      <c r="U995" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V995" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W995" t="s">
+        <v>1469</v>
+      </c>
+      <c r="X995" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="996" spans="1:14" x14ac:dyDescent="0.2">
@@ -72368,8 +73934,38 @@
       <c r="M996" t="s">
         <v>4</v>
       </c>
-      <c r="N996">
-        <v>0</v>
+      <c r="N996" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O996" t="s">
+        <v>1470</v>
+      </c>
+      <c r="P996" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>0.14996745741554207</v>
+      </c>
+      <c r="R996" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S996" t="n">
+        <v>8.592327235598628</v>
+      </c>
+      <c r="T996" t="n">
+        <v>0.9725225141673572</v>
+      </c>
+      <c r="U996" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V996" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W996" t="s">
+        <v>1471</v>
+      </c>
+      <c r="X996" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="997" spans="1:14" x14ac:dyDescent="0.2">
@@ -72412,8 +74008,38 @@
       <c r="M997" t="s">
         <v>4</v>
       </c>
-      <c r="N997">
-        <v>0</v>
+      <c r="N997" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O997" t="s">
+        <v>1472</v>
+      </c>
+      <c r="P997" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>0.59986903125019</v>
+      </c>
+      <c r="R997" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S997" t="n">
+        <v>36.026259190990075</v>
+      </c>
+      <c r="T997" t="n">
+        <v>0.9145672654331527</v>
+      </c>
+      <c r="U997" t="n">
+        <v>90.64327485380117</v>
+      </c>
+      <c r="V997" t="n">
+        <v>47.36842105263159</v>
+      </c>
+      <c r="W997" t="s">
+        <v>1473</v>
+      </c>
+      <c r="X997" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="998" spans="1:14" x14ac:dyDescent="0.2">
@@ -72456,8 +74082,38 @@
       <c r="M998" t="s">
         <v>4</v>
       </c>
-      <c r="N998">
-        <v>0</v>
+      <c r="N998" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O998" t="s">
+        <v>1474</v>
+      </c>
+      <c r="P998" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>0.19751953482031048</v>
+      </c>
+      <c r="R998" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S998" t="n">
+        <v>12.882563577824502</v>
+      </c>
+      <c r="T998" t="n">
+        <v>0.9466401825713385</v>
+      </c>
+      <c r="U998" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V998" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W998" t="s">
+        <v>1475</v>
+      </c>
+      <c r="X998" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="999" spans="1:14" x14ac:dyDescent="0.2">
@@ -72500,8 +74156,38 @@
       <c r="M999" t="s">
         <v>4</v>
       </c>
-      <c r="N999">
-        <v>0</v>
+      <c r="N999" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O999" t="s">
+        <v>1476</v>
+      </c>
+      <c r="P999" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>0.2368597431025723</v>
+      </c>
+      <c r="R999" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S999" t="n">
+        <v>16.330899887521664</v>
+      </c>
+      <c r="T999" t="n">
+        <v>0.948757991678437</v>
+      </c>
+      <c r="U999" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V999" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W999" t="s">
+        <v>1477</v>
+      </c>
+      <c r="X999" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="1000" spans="1:14" x14ac:dyDescent="0.2">
@@ -72544,8 +74230,38 @@
       <c r="M1000" t="s">
         <v>4</v>
       </c>
-      <c r="N1000">
-        <v>0</v>
+      <c r="N1000" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1000" t="s">
+        <v>1478</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>0.13753896113632003</v>
+      </c>
+      <c r="R1000" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S1000" t="n">
+        <v>6.009244473419377</v>
+      </c>
+      <c r="T1000" t="n">
+        <v>0.9808206229379504</v>
+      </c>
+      <c r="U1000" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1000" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1000" t="s">
+        <v>1479</v>
+      </c>
+      <c r="X1000" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="1001" spans="1:14" x14ac:dyDescent="0.2">
@@ -72588,8 +74304,38 @@
       <c r="M1001" t="s">
         <v>4</v>
       </c>
-      <c r="N1001">
-        <v>0</v>
+      <c r="N1001" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1001" t="s">
+        <v>1480</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>0.229312112187527</v>
+      </c>
+      <c r="R1001" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S1001" t="n">
+        <v>14.737356238450378</v>
+      </c>
+      <c r="T1001" t="n">
+        <v>0.9521396496532165</v>
+      </c>
+      <c r="U1001" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V1001" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1001" t="s">
+        <v>1481</v>
+      </c>
+      <c r="X1001" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="1002" spans="1:14" x14ac:dyDescent="0.2">
@@ -72632,8 +74378,38 @@
       <c r="M1002" t="s">
         <v>4</v>
       </c>
-      <c r="N1002">
-        <v>0</v>
+      <c r="N1002" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1002" t="s">
+        <v>1482</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>0.17428985867484847</v>
+      </c>
+      <c r="R1002" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S1002" t="n">
+        <v>9.352232184553952</v>
+      </c>
+      <c r="T1002" t="n">
+        <v>0.9659417590638149</v>
+      </c>
+      <c r="U1002" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V1002" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1002" t="s">
+        <v>1483</v>
+      </c>
+      <c r="X1002" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="1003" spans="1:14" x14ac:dyDescent="0.2">
@@ -72676,8 +74452,38 @@
       <c r="M1003" t="s">
         <v>4</v>
       </c>
-      <c r="N1003">
-        <v>0</v>
+      <c r="N1003" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1003" t="s">
+        <v>1484</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>0.2583617154584026</v>
+      </c>
+      <c r="R1003" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S1003" t="n">
+        <v>9.159802981258695</v>
+      </c>
+      <c r="T1003" t="n">
+        <v>0.9763013291807129</v>
+      </c>
+      <c r="U1003" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V1003" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W1003" t="s">
+        <v>1485</v>
+      </c>
+      <c r="X1003" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="1004" spans="1:14" x14ac:dyDescent="0.2">
@@ -72720,8 +74526,38 @@
       <c r="M1004" t="s">
         <v>4</v>
       </c>
-      <c r="N1004">
-        <v>0</v>
+      <c r="N1004" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1004" t="s">
+        <v>1486</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>0.5354365787931421</v>
+      </c>
+      <c r="R1004" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S1004" t="n">
+        <v>27.120113204853908</v>
+      </c>
+      <c r="T1004" t="n">
+        <v>0.9425564345891537</v>
+      </c>
+      <c r="U1004" t="n">
+        <v>90.05847953216374</v>
+      </c>
+      <c r="V1004" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1004" t="s">
+        <v>1487</v>
+      </c>
+      <c r="X1004" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="1005" spans="1:14" x14ac:dyDescent="0.2">
@@ -72764,8 +74600,38 @@
       <c r="M1005" t="s">
         <v>4</v>
       </c>
-      <c r="N1005">
-        <v>0</v>
+      <c r="N1005" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1005" t="s">
+        <v>1488</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>0.3413737725387058</v>
+      </c>
+      <c r="R1005" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S1005" t="n">
+        <v>23.915129795773257</v>
+      </c>
+      <c r="T1005" t="n">
+        <v>0.9418116636871439</v>
+      </c>
+      <c r="U1005" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V1005" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1005" t="s">
+        <v>1489</v>
+      </c>
+      <c r="X1005" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="1006" spans="1:14" x14ac:dyDescent="0.2">
@@ -72808,8 +74674,38 @@
       <c r="M1006" t="s">
         <v>4</v>
       </c>
-      <c r="N1006">
-        <v>0</v>
+      <c r="N1006" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1006" t="s">
+        <v>1490</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>0.39230934311740384</v>
+      </c>
+      <c r="R1006" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S1006" t="n">
+        <v>15.655597926207767</v>
+      </c>
+      <c r="T1006" t="n">
+        <v>0.9645069802784086</v>
+      </c>
+      <c r="U1006" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V1006" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W1006" t="s">
+        <v>1491</v>
+      </c>
+      <c r="X1006" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="1007" spans="1:14" x14ac:dyDescent="0.2">
@@ -72852,8 +74748,38 @@
       <c r="M1007" t="s">
         <v>4</v>
       </c>
-      <c r="N1007">
-        <v>0</v>
+      <c r="N1007" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1007" t="s">
+        <v>1492</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0.2975882253990605</v>
+      </c>
+      <c r="R1007" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S1007" t="n">
+        <v>29.55550091257595</v>
+      </c>
+      <c r="T1007" t="n">
+        <v>0.9381525391161006</v>
+      </c>
+      <c r="U1007" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V1007" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1007" t="s">
+        <v>1493</v>
+      </c>
+      <c r="X1007" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="1008" spans="1:14" x14ac:dyDescent="0.2">
@@ -72896,8 +74822,38 @@
       <c r="M1008" t="s">
         <v>4</v>
       </c>
-      <c r="N1008">
-        <v>0</v>
+      <c r="N1008" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1008" t="s">
+        <v>1494</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0.39480152034999527</v>
+      </c>
+      <c r="R1008" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S1008" t="n">
+        <v>25.2331465224452</v>
+      </c>
+      <c r="T1008" t="n">
+        <v>0.9396141405762776</v>
+      </c>
+      <c r="U1008" t="n">
+        <v>94.15204678362574</v>
+      </c>
+      <c r="V1008" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1008" t="s">
+        <v>1495</v>
+      </c>
+      <c r="X1008" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="1009" spans="1:14" x14ac:dyDescent="0.2">
@@ -72940,8 +74896,38 @@
       <c r="M1009" t="s">
         <v>4</v>
       </c>
-      <c r="N1009">
-        <v>0</v>
+      <c r="N1009" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1009" t="s">
+        <v>1496</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0.3440832589064975</v>
+      </c>
+      <c r="R1009" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S1009" t="n">
+        <v>30.012128803447922</v>
+      </c>
+      <c r="T1009" t="n">
+        <v>0.9275199177128597</v>
+      </c>
+      <c r="U1009" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V1009" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1009" t="s">
+        <v>1497</v>
+      </c>
+      <c r="X1009" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="1010" spans="1:14" x14ac:dyDescent="0.2">
@@ -72984,8 +74970,38 @@
       <c r="M1010" t="s">
         <v>4</v>
       </c>
-      <c r="N1010">
-        <v>0</v>
+      <c r="N1010" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1010" t="s">
+        <v>1498</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0.24008486845725407</v>
+      </c>
+      <c r="R1010" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S1010" t="n">
+        <v>14.291349673031432</v>
+      </c>
+      <c r="T1010" t="n">
+        <v>0.9599321213214398</v>
+      </c>
+      <c r="U1010" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1010" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1010" t="s">
+        <v>1499</v>
+      </c>
+      <c r="X1010" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1011" spans="1:14" x14ac:dyDescent="0.2">
@@ -73028,8 +75044,38 @@
       <c r="M1011" t="s">
         <v>4</v>
       </c>
-      <c r="N1011">
-        <v>0</v>
+      <c r="N1011" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1011" t="s">
+        <v>1501</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>0.7214431644548469</v>
+      </c>
+      <c r="R1011" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S1011" t="n">
+        <v>54.62874982289064</v>
+      </c>
+      <c r="T1011" t="n">
+        <v>0.8443966612126068</v>
+      </c>
+      <c r="U1011" t="n">
+        <v>87.71929824561404</v>
+      </c>
+      <c r="V1011" t="n">
+        <v>47.36842105263159</v>
+      </c>
+      <c r="W1011" t="s">
+        <v>1502</v>
+      </c>
+      <c r="X1011" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1012" spans="1:14" x14ac:dyDescent="0.2">
@@ -73072,8 +75118,38 @@
       <c r="M1012" t="s">
         <v>4</v>
       </c>
-      <c r="N1012">
-        <v>0</v>
+      <c r="N1012" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1012" t="s">
+        <v>1503</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>0.2732369550606357</v>
+      </c>
+      <c r="R1012" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S1012" t="n">
+        <v>22.69564670573293</v>
+      </c>
+      <c r="T1012" t="n">
+        <v>0.9523262731485675</v>
+      </c>
+      <c r="U1012" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1012" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W1012" t="s">
+        <v>1504</v>
+      </c>
+      <c r="X1012" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1013" spans="1:14" x14ac:dyDescent="0.2">
@@ -73116,8 +75192,38 @@
       <c r="M1013" t="s">
         <v>4</v>
       </c>
-      <c r="N1013">
-        <v>0</v>
+      <c r="N1013" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1013" t="s">
+        <v>1505</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>0.27708636942084297</v>
+      </c>
+      <c r="R1013" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S1013" t="n">
+        <v>21.02543327976534</v>
+      </c>
+      <c r="T1013" t="n">
+        <v>0.941409585048585</v>
+      </c>
+      <c r="U1013" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1013" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1013" t="s">
+        <v>1506</v>
+      </c>
+      <c r="X1013" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1014" spans="1:14" x14ac:dyDescent="0.2">
@@ -73160,8 +75266,38 @@
       <c r="M1014" t="s">
         <v>4</v>
       </c>
-      <c r="N1014">
-        <v>0</v>
+      <c r="N1014" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1014" t="s">
+        <v>1507</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>0.2836337107250202</v>
+      </c>
+      <c r="R1014" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S1014" t="n">
+        <v>11.806811328641528</v>
+      </c>
+      <c r="T1014" t="n">
+        <v>0.9685269589063387</v>
+      </c>
+      <c r="U1014" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1014" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W1014" t="s">
+        <v>1508</v>
+      </c>
+      <c r="X1014" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1015" spans="1:14" x14ac:dyDescent="0.2">
@@ -73204,8 +75340,38 @@
       <c r="M1015" t="s">
         <v>4</v>
       </c>
-      <c r="N1015">
-        <v>0</v>
+      <c r="N1015" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1015" t="s">
+        <v>1509</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>0.2926704248351779</v>
+      </c>
+      <c r="R1015" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="S1015" t="n">
+        <v>28.46848283847001</v>
+      </c>
+      <c r="T1015" t="n">
+        <v>0.9455964441476653</v>
+      </c>
+      <c r="U1015" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1015" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1015" t="s">
+        <v>1510</v>
+      </c>
+      <c r="X1015" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1016" spans="1:14" x14ac:dyDescent="0.2">
@@ -73248,8 +75414,38 @@
       <c r="M1016" t="s">
         <v>4</v>
       </c>
-      <c r="N1016">
-        <v>0</v>
+      <c r="N1016" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1016" t="s">
+        <v>1511</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>0.2619565938497601</v>
+      </c>
+      <c r="R1016" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S1016" t="n">
+        <v>31.755925502896556</v>
+      </c>
+      <c r="T1016" t="n">
+        <v>0.8825766441247856</v>
+      </c>
+      <c r="U1016" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1016" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W1016" t="s">
+        <v>1512</v>
+      </c>
+      <c r="X1016" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1017" spans="1:14" x14ac:dyDescent="0.2">
@@ -73292,8 +75488,38 @@
       <c r="M1017" t="s">
         <v>4</v>
       </c>
-      <c r="N1017">
-        <v>0</v>
+      <c r="N1017" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1017" t="s">
+        <v>1513</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>0.1688745477787954</v>
+      </c>
+      <c r="R1017" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S1017" t="n">
+        <v>7.928296978063098</v>
+      </c>
+      <c r="T1017" t="n">
+        <v>0.9663039438765043</v>
+      </c>
+      <c r="U1017" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1017" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1017" t="s">
+        <v>1514</v>
+      </c>
+      <c r="X1017" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1018" spans="1:14" x14ac:dyDescent="0.2">
@@ -73336,8 +75562,38 @@
       <c r="M1018" t="s">
         <v>4</v>
       </c>
-      <c r="N1018">
-        <v>0</v>
+      <c r="N1018" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1018" t="s">
+        <v>1515</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0.48278789618725426</v>
+      </c>
+      <c r="R1018" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S1018" t="n">
+        <v>33.79733739684916</v>
+      </c>
+      <c r="T1018" t="n">
+        <v>0.9587473339754276</v>
+      </c>
+      <c r="U1018" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V1018" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W1018" t="s">
+        <v>1516</v>
+      </c>
+      <c r="X1018" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1019" spans="1:14" x14ac:dyDescent="0.2">
@@ -73380,8 +75636,38 @@
       <c r="M1019" t="s">
         <v>4</v>
       </c>
-      <c r="N1019">
-        <v>0</v>
+      <c r="N1019" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1019" t="s">
+        <v>1517</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0.19004926448902815</v>
+      </c>
+      <c r="R1019" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S1019" t="n">
+        <v>15.718963295717845</v>
+      </c>
+      <c r="T1019" t="n">
+        <v>0.9024308599033769</v>
+      </c>
+      <c r="U1019" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1019" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1019" t="s">
+        <v>1518</v>
+      </c>
+      <c r="X1019" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1020" spans="1:14" x14ac:dyDescent="0.2">
@@ -73424,8 +75710,38 @@
       <c r="M1020" t="s">
         <v>4</v>
       </c>
-      <c r="N1020">
-        <v>0</v>
+      <c r="N1020" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1020" t="s">
+        <v>1519</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0.2076387851488466</v>
+      </c>
+      <c r="R1020" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S1020" t="n">
+        <v>16.23469720731394</v>
+      </c>
+      <c r="T1020" t="n">
+        <v>0.9427665975700659</v>
+      </c>
+      <c r="U1020" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1020" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W1020" t="s">
+        <v>1520</v>
+      </c>
+      <c r="X1020" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1021" spans="1:14" x14ac:dyDescent="0.2">
@@ -73468,8 +75784,38 @@
       <c r="M1021" t="s">
         <v>4</v>
       </c>
-      <c r="N1021">
-        <v>0</v>
+      <c r="N1021" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1021" t="s">
+        <v>1521</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0.1670229876626106</v>
+      </c>
+      <c r="R1021" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S1021" t="n">
+        <v>7.130108618051832</v>
+      </c>
+      <c r="T1021" t="n">
+        <v>0.9797962345898924</v>
+      </c>
+      <c r="U1021" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1021" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1021" t="s">
+        <v>1522</v>
+      </c>
+      <c r="X1021" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1022" spans="1:14" x14ac:dyDescent="0.2">
@@ -73512,8 +75858,38 @@
       <c r="M1022" t="s">
         <v>4</v>
       </c>
-      <c r="N1022">
-        <v>0</v>
+      <c r="N1022" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1022" t="s">
+        <v>1523</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>0.2519330024874922</v>
+      </c>
+      <c r="R1022" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S1022" t="n">
+        <v>15.294765634420983</v>
+      </c>
+      <c r="T1022" t="n">
+        <v>0.9434231360771569</v>
+      </c>
+      <c r="U1022" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1022" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1022" t="s">
+        <v>1524</v>
+      </c>
+      <c r="X1022" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1023" spans="1:14" x14ac:dyDescent="0.2">
@@ -73556,8 +75932,38 @@
       <c r="M1023" t="s">
         <v>4</v>
       </c>
-      <c r="N1023">
-        <v>0</v>
+      <c r="N1023" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1023" t="s">
+        <v>1525</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0.1793417904065162</v>
+      </c>
+      <c r="R1023" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S1023" t="n">
+        <v>8.883872786524762</v>
+      </c>
+      <c r="T1023" t="n">
+        <v>0.9660927897522553</v>
+      </c>
+      <c r="U1023" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1023" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1023" t="s">
+        <v>1526</v>
+      </c>
+      <c r="X1023" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1024" spans="1:14" x14ac:dyDescent="0.2">
@@ -73600,8 +76006,38 @@
       <c r="M1024" t="s">
         <v>4</v>
       </c>
-      <c r="N1024">
-        <v>0</v>
+      <c r="N1024" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1024" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>0.15200281097237323</v>
+      </c>
+      <c r="R1024" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S1024" t="n">
+        <v>3.6660245011653902</v>
+      </c>
+      <c r="T1024" t="n">
+        <v>0.986418255186076</v>
+      </c>
+      <c r="U1024" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1024" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W1024" t="s">
+        <v>1528</v>
+      </c>
+      <c r="X1024" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1025" spans="1:14" x14ac:dyDescent="0.2">
@@ -73644,8 +76080,38 @@
       <c r="M1025" t="s">
         <v>4</v>
       </c>
-      <c r="N1025">
-        <v>0</v>
+      <c r="N1025" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1025" t="s">
+        <v>1529</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0.5919758700046067</v>
+      </c>
+      <c r="R1025" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S1025" t="n">
+        <v>29.862490392089768</v>
+      </c>
+      <c r="T1025" t="n">
+        <v>0.9302864015071066</v>
+      </c>
+      <c r="U1025" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="V1025" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W1025" t="s">
+        <v>1530</v>
+      </c>
+      <c r="X1025" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1026" spans="1:14" x14ac:dyDescent="0.2">
@@ -73688,8 +76154,38 @@
       <c r="M1026" t="s">
         <v>4</v>
       </c>
-      <c r="N1026">
-        <v>0</v>
+      <c r="N1026" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1026" t="s">
+        <v>1531</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0.15715796442793994</v>
+      </c>
+      <c r="R1026" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S1026" t="n">
+        <v>9.029475497473205</v>
+      </c>
+      <c r="T1026" t="n">
+        <v>0.9665849983864317</v>
+      </c>
+      <c r="U1026" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V1026" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1026" t="s">
+        <v>1532</v>
+      </c>
+      <c r="X1026" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1027" spans="1:14" x14ac:dyDescent="0.2">
@@ -73732,8 +76228,38 @@
       <c r="M1027" t="s">
         <v>4</v>
       </c>
-      <c r="N1027">
-        <v>0</v>
+      <c r="N1027" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1027" t="s">
+        <v>1533</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0.22636614918528153</v>
+      </c>
+      <c r="R1027" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="S1027" t="n">
+        <v>11.007723137820276</v>
+      </c>
+      <c r="T1027" t="n">
+        <v>0.9682684073002927</v>
+      </c>
+      <c r="U1027" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1027" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1027" t="s">
+        <v>1534</v>
+      </c>
+      <c r="X1027" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1028" spans="1:14" x14ac:dyDescent="0.2">
@@ -73776,8 +76302,38 @@
       <c r="M1028" t="s">
         <v>4</v>
       </c>
-      <c r="N1028">
-        <v>0</v>
+      <c r="N1028" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1028" t="s">
+        <v>1535</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0.1499405326657275</v>
+      </c>
+      <c r="R1028" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S1028" t="n">
+        <v>7.068209457135675</v>
+      </c>
+      <c r="T1028" t="n">
+        <v>0.9638718393202068</v>
+      </c>
+      <c r="U1028" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1028" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1028" t="s">
+        <v>1536</v>
+      </c>
+      <c r="X1028" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1029" spans="1:14" x14ac:dyDescent="0.2">
@@ -73820,8 +76376,38 @@
       <c r="M1029" t="s">
         <v>4</v>
       </c>
-      <c r="N1029">
-        <v>0</v>
+      <c r="N1029" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1029" t="s">
+        <v>1537</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0.2606301477152897</v>
+      </c>
+      <c r="R1029" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S1029" t="n">
+        <v>9.93048712491988</v>
+      </c>
+      <c r="T1029" t="n">
+        <v>0.9733248405447049</v>
+      </c>
+      <c r="U1029" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V1029" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W1029" t="s">
+        <v>1538</v>
+      </c>
+      <c r="X1029" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1030" spans="1:14" x14ac:dyDescent="0.2">
@@ -73864,8 +76450,38 @@
       <c r="M1030" t="s">
         <v>4</v>
       </c>
-      <c r="N1030">
-        <v>0</v>
+      <c r="N1030" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1030" t="s">
+        <v>1539</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0.1647071809576346</v>
+      </c>
+      <c r="R1030" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S1030" t="n">
+        <v>11.61581327183299</v>
+      </c>
+      <c r="T1030" t="n">
+        <v>0.9671555508461377</v>
+      </c>
+      <c r="U1030" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V1030" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1030" t="s">
+        <v>1540</v>
+      </c>
+      <c r="X1030" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1031" spans="1:14" x14ac:dyDescent="0.2">
@@ -73908,8 +76524,38 @@
       <c r="M1031" t="s">
         <v>4</v>
       </c>
-      <c r="N1031">
-        <v>0</v>
+      <c r="N1031" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1031" t="s">
+        <v>1541</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0.30646301033856105</v>
+      </c>
+      <c r="R1031" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S1031" t="n">
+        <v>15.380564108598048</v>
+      </c>
+      <c r="T1031" t="n">
+        <v>0.975647747399992</v>
+      </c>
+      <c r="U1031" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V1031" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W1031" t="s">
+        <v>1542</v>
+      </c>
+      <c r="X1031" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1032" spans="1:14" x14ac:dyDescent="0.2">
@@ -73952,8 +76598,38 @@
       <c r="M1032" t="s">
         <v>4</v>
       </c>
-      <c r="N1032">
-        <v>0</v>
+      <c r="N1032" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1032" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0.5524614005069175</v>
+      </c>
+      <c r="R1032" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S1032" t="n">
+        <v>49.47664378999175</v>
+      </c>
+      <c r="T1032" t="n">
+        <v>0.9210435410970941</v>
+      </c>
+      <c r="U1032" t="n">
+        <v>84.7953216374269</v>
+      </c>
+      <c r="V1032" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1032" t="s">
+        <v>1544</v>
+      </c>
+      <c r="X1032" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1033" spans="1:14" x14ac:dyDescent="0.2">
@@ -73996,8 +76672,38 @@
       <c r="M1033" t="s">
         <v>4</v>
       </c>
-      <c r="N1033">
-        <v>0</v>
+      <c r="N1033" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1033" t="s">
+        <v>1545</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0.3816470039419446</v>
+      </c>
+      <c r="R1033" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S1033" t="n">
+        <v>60.095202220963195</v>
+      </c>
+      <c r="T1033" t="n">
+        <v>0.8812655114076205</v>
+      </c>
+      <c r="U1033" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V1033" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1033" t="s">
+        <v>1546</v>
+      </c>
+      <c r="X1033" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1034" spans="1:14" x14ac:dyDescent="0.2">
@@ -74040,8 +76746,38 @@
       <c r="M1034" t="s">
         <v>4</v>
       </c>
-      <c r="N1034">
-        <v>0</v>
+      <c r="N1034" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1034" t="s">
+        <v>1547</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0.37379227914058255</v>
+      </c>
+      <c r="R1034" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S1034" t="n">
+        <v>24.54131094610613</v>
+      </c>
+      <c r="T1034" t="n">
+        <v>0.9580486844904392</v>
+      </c>
+      <c r="U1034" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V1034" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W1034" t="s">
+        <v>1548</v>
+      </c>
+      <c r="X1034" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1035" spans="1:14" x14ac:dyDescent="0.2">
@@ -74084,8 +76820,38 @@
       <c r="M1035" t="s">
         <v>4</v>
       </c>
-      <c r="N1035">
-        <v>0</v>
+      <c r="N1035" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1035" t="s">
+        <v>1549</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0.3274449404621489</v>
+      </c>
+      <c r="R1035" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S1035" t="n">
+        <v>26.127204996597463</v>
+      </c>
+      <c r="T1035" t="n">
+        <v>0.9629739998027101</v>
+      </c>
+      <c r="U1035" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V1035" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1035" t="s">
+        <v>1550</v>
+      </c>
+      <c r="X1035" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1036" spans="1:14" x14ac:dyDescent="0.2">
@@ -74128,8 +76894,38 @@
       <c r="M1036" t="s">
         <v>4</v>
       </c>
-      <c r="N1036">
-        <v>0</v>
+      <c r="N1036" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1036" t="s">
+        <v>1551</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0.4091171489064127</v>
+      </c>
+      <c r="R1036" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S1036" t="n">
+        <v>24.94109704885403</v>
+      </c>
+      <c r="T1036" t="n">
+        <v>0.9607333008018826</v>
+      </c>
+      <c r="U1036" t="n">
+        <v>95.90643274853801</v>
+      </c>
+      <c r="V1036" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1036" t="s">
+        <v>1552</v>
+      </c>
+      <c r="X1036" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1037" spans="1:14" x14ac:dyDescent="0.2">
@@ -74172,8 +76968,38 @@
       <c r="M1037" t="s">
         <v>4</v>
       </c>
-      <c r="N1037">
-        <v>0</v>
+      <c r="N1037" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1037" t="s">
+        <v>1553</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0.3119247137274943</v>
+      </c>
+      <c r="R1037" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S1037" t="n">
+        <v>26.604488461350225</v>
+      </c>
+      <c r="T1037" t="n">
+        <v>0.9336580517633255</v>
+      </c>
+      <c r="U1037" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V1037" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1037" t="s">
+        <v>1554</v>
+      </c>
+      <c r="X1037" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="1038" spans="1:14" x14ac:dyDescent="0.2">
@@ -74216,8 +77042,38 @@
       <c r="M1038" t="s">
         <v>4</v>
       </c>
-      <c r="N1038">
-        <v>0</v>
+      <c r="N1038" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1038" t="s">
+        <v>1555</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>0.27524897717969665</v>
+      </c>
+      <c r="R1038" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S1038" t="n">
+        <v>17.61416144817087</v>
+      </c>
+      <c r="T1038" t="n">
+        <v>0.9448004995813197</v>
+      </c>
+      <c r="U1038" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V1038" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W1038" t="s">
+        <v>1556</v>
+      </c>
+      <c r="X1038" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1039" spans="1:14" x14ac:dyDescent="0.2">
@@ -74260,8 +77116,38 @@
       <c r="M1039" t="s">
         <v>4</v>
       </c>
-      <c r="N1039">
-        <v>0</v>
+      <c r="N1039" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1039" t="s">
+        <v>1558</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0.6524204582253326</v>
+      </c>
+      <c r="R1039" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S1039" t="n">
+        <v>70.11858011463583</v>
+      </c>
+      <c r="T1039" t="n">
+        <v>0.8486014945342417</v>
+      </c>
+      <c r="U1039" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="V1039" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1039" t="s">
+        <v>1559</v>
+      </c>
+      <c r="X1039" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1040" spans="1:14" x14ac:dyDescent="0.2">
@@ -74304,8 +77190,38 @@
       <c r="M1040" t="s">
         <v>4</v>
       </c>
-      <c r="N1040">
-        <v>0</v>
+      <c r="N1040" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1040" t="s">
+        <v>1560</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>0.2835140473359221</v>
+      </c>
+      <c r="R1040" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S1040" t="n">
+        <v>23.298823662035208</v>
+      </c>
+      <c r="T1040" t="n">
+        <v>0.936355802703536</v>
+      </c>
+      <c r="U1040" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V1040" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W1040" t="s">
+        <v>1561</v>
+      </c>
+      <c r="X1040" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1041" spans="1:14" x14ac:dyDescent="0.2">
@@ -74348,8 +77264,38 @@
       <c r="M1041" t="s">
         <v>4</v>
       </c>
-      <c r="N1041">
-        <v>0</v>
+      <c r="N1041" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1041" t="s">
+        <v>1562</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0.28467740321349133</v>
+      </c>
+      <c r="R1041" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S1041" t="n">
+        <v>20.48386604168696</v>
+      </c>
+      <c r="T1041" t="n">
+        <v>0.9587502310171843</v>
+      </c>
+      <c r="U1041" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V1041" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W1041" t="s">
+        <v>1563</v>
+      </c>
+      <c r="X1041" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1042" spans="1:14" x14ac:dyDescent="0.2">
@@ -74392,8 +77338,38 @@
       <c r="M1042" t="s">
         <v>4</v>
       </c>
-      <c r="N1042">
-        <v>0</v>
+      <c r="N1042" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1042" t="s">
+        <v>1564</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0.2552295830103546</v>
+      </c>
+      <c r="R1042" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="S1042" t="n">
+        <v>16.541195289591624</v>
+      </c>
+      <c r="T1042" t="n">
+        <v>0.9453391710401688</v>
+      </c>
+      <c r="U1042" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1042" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1042" t="s">
+        <v>1565</v>
+      </c>
+      <c r="X1042" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1043" spans="1:14" x14ac:dyDescent="0.2">
@@ -74436,8 +77412,38 @@
       <c r="M1043" t="s">
         <v>4</v>
       </c>
-      <c r="N1043">
-        <v>0</v>
+      <c r="N1043" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1043" t="s">
+        <v>1566</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0.3019152659312443</v>
+      </c>
+      <c r="R1043" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S1043" t="n">
+        <v>38.08744273004716</v>
+      </c>
+      <c r="T1043" t="n">
+        <v>0.917701236370116</v>
+      </c>
+      <c r="U1043" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1043" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1043" t="s">
+        <v>1567</v>
+      </c>
+      <c r="X1043" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1044" spans="1:14" x14ac:dyDescent="0.2">
@@ -74480,8 +77486,38 @@
       <c r="M1044" t="s">
         <v>4</v>
       </c>
-      <c r="N1044">
-        <v>0</v>
+      <c r="N1044" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1044" t="s">
+        <v>1568</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0.2549573102950049</v>
+      </c>
+      <c r="R1044" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S1044" t="n">
+        <v>23.021014980100098</v>
+      </c>
+      <c r="T1044" t="n">
+        <v>0.9241390935195135</v>
+      </c>
+      <c r="U1044" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V1044" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1044" t="s">
+        <v>1569</v>
+      </c>
+      <c r="X1044" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1045" spans="1:14" x14ac:dyDescent="0.2">
@@ -74524,8 +77560,38 @@
       <c r="M1045" t="s">
         <v>4</v>
       </c>
-      <c r="N1045">
-        <v>0</v>
+      <c r="N1045" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1045" t="s">
+        <v>1570</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0.16580689325744125</v>
+      </c>
+      <c r="R1045" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S1045" t="n">
+        <v>4.705872160783567</v>
+      </c>
+      <c r="T1045" t="n">
+        <v>0.983566904023567</v>
+      </c>
+      <c r="U1045" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1045" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W1045" t="s">
+        <v>1571</v>
+      </c>
+      <c r="X1045" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1046" spans="1:14" x14ac:dyDescent="0.2">
@@ -74568,8 +77634,38 @@
       <c r="M1046" t="s">
         <v>4</v>
       </c>
-      <c r="N1046">
-        <v>0</v>
+      <c r="N1046" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1046" t="s">
+        <v>1572</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0.4735414021146962</v>
+      </c>
+      <c r="R1046" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S1046" t="n">
+        <v>54.60434534222807</v>
+      </c>
+      <c r="T1046" t="n">
+        <v>0.9376384627150982</v>
+      </c>
+      <c r="U1046" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="V1046" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1046" t="s">
+        <v>1573</v>
+      </c>
+      <c r="X1046" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1047" spans="1:14" x14ac:dyDescent="0.2">
@@ -74612,8 +77708,38 @@
       <c r="M1047" t="s">
         <v>4</v>
       </c>
-      <c r="N1047">
-        <v>0</v>
+      <c r="N1047" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1047" t="s">
+        <v>1574</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0.18579731634347674</v>
+      </c>
+      <c r="R1047" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S1047" t="n">
+        <v>26.55844320627297</v>
+      </c>
+      <c r="T1047" t="n">
+        <v>0.9427942768215885</v>
+      </c>
+      <c r="U1047" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1047" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1047" t="s">
+        <v>1575</v>
+      </c>
+      <c r="X1047" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1048" spans="1:14" x14ac:dyDescent="0.2">
@@ -74656,8 +77782,38 @@
       <c r="M1048" t="s">
         <v>4</v>
       </c>
-      <c r="N1048">
-        <v>0</v>
+      <c r="N1048" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1048" t="s">
+        <v>1576</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0.20842912779975187</v>
+      </c>
+      <c r="R1048" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S1048" t="n">
+        <v>15.285746920316107</v>
+      </c>
+      <c r="T1048" t="n">
+        <v>0.9533754020026196</v>
+      </c>
+      <c r="U1048" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1048" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1048" t="s">
+        <v>1577</v>
+      </c>
+      <c r="X1048" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1049" spans="1:14" x14ac:dyDescent="0.2">
@@ -74700,8 +77856,38 @@
       <c r="M1049" t="s">
         <v>4</v>
       </c>
-      <c r="N1049">
-        <v>0</v>
+      <c r="N1049" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1049" t="s">
+        <v>1578</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0.1979936250237433</v>
+      </c>
+      <c r="R1049" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S1049" t="n">
+        <v>12.99296073318158</v>
+      </c>
+      <c r="T1049" t="n">
+        <v>0.9527482452366649</v>
+      </c>
+      <c r="U1049" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1049" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1049" t="s">
+        <v>1579</v>
+      </c>
+      <c r="X1049" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1050" spans="1:14" x14ac:dyDescent="0.2">
@@ -74744,8 +77930,38 @@
       <c r="M1050" t="s">
         <v>4</v>
       </c>
-      <c r="N1050">
-        <v>0</v>
+      <c r="N1050" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1050" t="s">
+        <v>1580</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0.23878119682620635</v>
+      </c>
+      <c r="R1050" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S1050" t="n">
+        <v>19.895059177480537</v>
+      </c>
+      <c r="T1050" t="n">
+        <v>0.9531200500624123</v>
+      </c>
+      <c r="U1050" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V1050" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1050" t="s">
+        <v>1581</v>
+      </c>
+      <c r="X1050" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1051" spans="1:14" x14ac:dyDescent="0.2">
@@ -74788,8 +78004,38 @@
       <c r="M1051" t="s">
         <v>4</v>
       </c>
-      <c r="N1051">
-        <v>0</v>
+      <c r="N1051" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1051" t="s">
+        <v>1582</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0.1708602005886064</v>
+      </c>
+      <c r="R1051" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S1051" t="n">
+        <v>9.785240189587764</v>
+      </c>
+      <c r="T1051" t="n">
+        <v>0.9601067393918175</v>
+      </c>
+      <c r="U1051" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1051" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W1051" t="s">
+        <v>1583</v>
+      </c>
+      <c r="X1051" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1052" spans="1:14" x14ac:dyDescent="0.2">
@@ -74832,8 +78078,38 @@
       <c r="M1052" t="s">
         <v>4</v>
       </c>
-      <c r="N1052">
-        <v>0</v>
+      <c r="N1052" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1052" t="s">
+        <v>1584</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0.15388478656004878</v>
+      </c>
+      <c r="R1052" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S1052" t="n">
+        <v>2.274515864395086</v>
+      </c>
+      <c r="T1052" t="n">
+        <v>0.9929423254766002</v>
+      </c>
+      <c r="U1052" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1052" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W1052" t="s">
+        <v>1585</v>
+      </c>
+      <c r="X1052" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1053" spans="1:14" x14ac:dyDescent="0.2">
@@ -74876,8 +78152,38 @@
       <c r="M1053" t="s">
         <v>4</v>
       </c>
-      <c r="N1053">
-        <v>0</v>
+      <c r="N1053" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1053" t="s">
+        <v>1586</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0.6414323432790052</v>
+      </c>
+      <c r="R1053" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S1053" t="n">
+        <v>62.69519375379099</v>
+      </c>
+      <c r="T1053" t="n">
+        <v>0.9080761381253876</v>
+      </c>
+      <c r="U1053" t="n">
+        <v>86.54970760233918</v>
+      </c>
+      <c r="V1053" t="n">
+        <v>52.63157894736844</v>
+      </c>
+      <c r="W1053" t="s">
+        <v>1587</v>
+      </c>
+      <c r="X1053" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1054" spans="1:14" x14ac:dyDescent="0.2">
@@ -74920,8 +78226,38 @@
       <c r="M1054" t="s">
         <v>4</v>
       </c>
-      <c r="N1054">
-        <v>0</v>
+      <c r="N1054" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1054" t="s">
+        <v>1588</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0.14779637629476916</v>
+      </c>
+      <c r="R1054" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S1054" t="n">
+        <v>7.482369937087305</v>
+      </c>
+      <c r="T1054" t="n">
+        <v>0.9312050900144939</v>
+      </c>
+      <c r="U1054" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V1054" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1054" t="s">
+        <v>1589</v>
+      </c>
+      <c r="X1054" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1055" spans="1:14" x14ac:dyDescent="0.2">
@@ -74964,8 +78300,38 @@
       <c r="M1055" t="s">
         <v>4</v>
       </c>
-      <c r="N1055">
-        <v>0</v>
+      <c r="N1055" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1055" t="s">
+        <v>1590</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0.23041918787667193</v>
+      </c>
+      <c r="R1055" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="S1055" t="n">
+        <v>9.687714824412218</v>
+      </c>
+      <c r="T1055" t="n">
+        <v>0.9710383726873372</v>
+      </c>
+      <c r="U1055" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1055" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W1055" t="s">
+        <v>1591</v>
+      </c>
+      <c r="X1055" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1056" spans="1:14" x14ac:dyDescent="0.2">
@@ -75008,8 +78374,38 @@
       <c r="M1056" t="s">
         <v>4</v>
       </c>
-      <c r="N1056">
-        <v>0</v>
+      <c r="N1056" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1056" t="s">
+        <v>1592</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0.13599943596127595</v>
+      </c>
+      <c r="R1056" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S1056" t="n">
+        <v>5.541346394068212</v>
+      </c>
+      <c r="T1056" t="n">
+        <v>0.9859911458686973</v>
+      </c>
+      <c r="U1056" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1056" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W1056" t="s">
+        <v>1593</v>
+      </c>
+      <c r="X1056" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1057" spans="1:14" x14ac:dyDescent="0.2">
@@ -75052,8 +78448,38 @@
       <c r="M1057" t="s">
         <v>4</v>
       </c>
-      <c r="N1057">
-        <v>0</v>
+      <c r="N1057" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1057" t="s">
+        <v>1594</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0.2344725647569632</v>
+      </c>
+      <c r="R1057" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S1057" t="n">
+        <v>17.338190614379435</v>
+      </c>
+      <c r="T1057" t="n">
+        <v>0.9281915072931465</v>
+      </c>
+      <c r="U1057" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1057" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1057" t="s">
+        <v>1595</v>
+      </c>
+      <c r="X1057" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1058" spans="1:14" x14ac:dyDescent="0.2">
@@ -75096,8 +78522,38 @@
       <c r="M1058" t="s">
         <v>4</v>
       </c>
-      <c r="N1058">
-        <v>0</v>
+      <c r="N1058" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1058" t="s">
+        <v>1596</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0.1834527701978299</v>
+      </c>
+      <c r="R1058" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S1058" t="n">
+        <v>12.86991610549493</v>
+      </c>
+      <c r="T1058" t="n">
+        <v>0.9583614105298787</v>
+      </c>
+      <c r="U1058" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V1058" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1058" t="s">
+        <v>1597</v>
+      </c>
+      <c r="X1058" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1059" spans="1:14" x14ac:dyDescent="0.2">
@@ -75140,8 +78596,38 @@
       <c r="M1059" t="s">
         <v>4</v>
       </c>
-      <c r="N1059">
-        <v>0</v>
+      <c r="N1059" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1059" t="s">
+        <v>1598</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0.2953200356750916</v>
+      </c>
+      <c r="R1059" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S1059" t="n">
+        <v>15.018189355515897</v>
+      </c>
+      <c r="T1059" t="n">
+        <v>0.9596450680269565</v>
+      </c>
+      <c r="U1059" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V1059" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W1059" t="s">
+        <v>1599</v>
+      </c>
+      <c r="X1059" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1060" spans="1:14" x14ac:dyDescent="0.2">
@@ -75184,8 +78670,38 @@
       <c r="M1060" t="s">
         <v>4</v>
       </c>
-      <c r="N1060">
-        <v>0</v>
+      <c r="N1060" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1060" t="s">
+        <v>1600</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0.5650426119174661</v>
+      </c>
+      <c r="R1060" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S1060" t="n">
+        <v>42.08777808529077</v>
+      </c>
+      <c r="T1060" t="n">
+        <v>0.9299319603726675</v>
+      </c>
+      <c r="U1060" t="n">
+        <v>88.30409356725146</v>
+      </c>
+      <c r="V1060" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1060" t="s">
+        <v>1601</v>
+      </c>
+      <c r="X1060" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1061" spans="1:14" x14ac:dyDescent="0.2">
@@ -75228,8 +78744,38 @@
       <c r="M1061" t="s">
         <v>4</v>
       </c>
-      <c r="N1061">
-        <v>0</v>
+      <c r="N1061" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1061" t="s">
+        <v>1602</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0.37415095134534404</v>
+      </c>
+      <c r="R1061" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S1061" t="n">
+        <v>52.043549237301015</v>
+      </c>
+      <c r="T1061" t="n">
+        <v>0.9277266476292325</v>
+      </c>
+      <c r="U1061" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V1061" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1061" t="s">
+        <v>1603</v>
+      </c>
+      <c r="X1061" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1062" spans="1:14" x14ac:dyDescent="0.2">
@@ -75272,8 +78818,38 @@
       <c r="M1062" t="s">
         <v>4</v>
       </c>
-      <c r="N1062">
-        <v>0</v>
+      <c r="N1062" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1062" t="s">
+        <v>1604</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0.3803184242262354</v>
+      </c>
+      <c r="R1062" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S1062" t="n">
+        <v>50.098640769517345</v>
+      </c>
+      <c r="T1062" t="n">
+        <v>0.9227423262873404</v>
+      </c>
+      <c r="U1062" t="n">
+        <v>93.5672514619883</v>
+      </c>
+      <c r="V1062" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1062" t="s">
+        <v>1605</v>
+      </c>
+      <c r="X1062" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1063" spans="1:14" x14ac:dyDescent="0.2">
@@ -75316,8 +78892,38 @@
       <c r="M1063" t="s">
         <v>4</v>
       </c>
-      <c r="N1063">
-        <v>0</v>
+      <c r="N1063" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1063" t="s">
+        <v>1606</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0.32405214964093787</v>
+      </c>
+      <c r="R1063" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S1063" t="n">
+        <v>29.021287624484494</v>
+      </c>
+      <c r="T1063" t="n">
+        <v>0.9431455845599086</v>
+      </c>
+      <c r="U1063" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V1063" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1063" t="s">
+        <v>1607</v>
+      </c>
+      <c r="X1063" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1064" spans="1:14" x14ac:dyDescent="0.2">
@@ -75360,8 +78966,38 @@
       <c r="M1064" t="s">
         <v>4</v>
       </c>
-      <c r="N1064">
-        <v>0</v>
+      <c r="N1064" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1064" t="s">
+        <v>1608</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0.3492473218957137</v>
+      </c>
+      <c r="R1064" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="S1064" t="n">
+        <v>33.65581812485799</v>
+      </c>
+      <c r="T1064" t="n">
+        <v>0.9381064895298171</v>
+      </c>
+      <c r="U1064" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V1064" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1064" t="s">
+        <v>1609</v>
+      </c>
+      <c r="X1064" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1065" spans="1:14" x14ac:dyDescent="0.2">
@@ -75404,8 +79040,38 @@
       <c r="M1065" t="s">
         <v>4</v>
       </c>
-      <c r="N1065">
-        <v>0</v>
+      <c r="N1065" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1065" t="s">
+        <v>1610</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>0.3020955449698093</v>
+      </c>
+      <c r="R1065" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S1065" t="n">
+        <v>23.050193454322937</v>
+      </c>
+      <c r="T1065" t="n">
+        <v>0.955709742622211</v>
+      </c>
+      <c r="U1065" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V1065" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1065" t="s">
+        <v>1611</v>
+      </c>
+      <c r="X1065" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="1066" spans="1:14" x14ac:dyDescent="0.2">
@@ -75448,8 +79114,38 @@
       <c r="M1066" t="s">
         <v>4</v>
       </c>
-      <c r="N1066">
-        <v>0</v>
+      <c r="N1066" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1066" t="s">
+        <v>1612</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0.2932898761903324</v>
+      </c>
+      <c r="R1066" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S1066" t="n">
+        <v>33.22092578349777</v>
+      </c>
+      <c r="T1066" t="n">
+        <v>0.8729105480250262</v>
+      </c>
+      <c r="U1066" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V1066" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W1066" t="s">
+        <v>1613</v>
+      </c>
+      <c r="X1066" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1067" spans="1:14" x14ac:dyDescent="0.2">
@@ -75492,8 +79188,38 @@
       <c r="M1067" t="s">
         <v>4</v>
       </c>
-      <c r="N1067">
-        <v>0</v>
+      <c r="N1067" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1067" t="s">
+        <v>1615</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0.6909309811192443</v>
+      </c>
+      <c r="R1067" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="S1067" t="n">
+        <v>32.79185418747321</v>
+      </c>
+      <c r="T1067" t="n">
+        <v>0.9229662855132624</v>
+      </c>
+      <c r="U1067" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="V1067" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1067" t="s">
+        <v>1616</v>
+      </c>
+      <c r="X1067" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1068" spans="1:14" x14ac:dyDescent="0.2">
@@ -75536,8 +79262,38 @@
       <c r="M1068" t="s">
         <v>4</v>
       </c>
-      <c r="N1068">
-        <v>0</v>
+      <c r="N1068" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1068" t="s">
+        <v>1617</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>0.27892665367460623</v>
+      </c>
+      <c r="R1068" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S1068" t="n">
+        <v>25.794515027435107</v>
+      </c>
+      <c r="T1068" t="n">
+        <v>0.9445864460889445</v>
+      </c>
+      <c r="U1068" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1068" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W1068" t="s">
+        <v>1618</v>
+      </c>
+      <c r="X1068" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1069" spans="1:14" x14ac:dyDescent="0.2">
@@ -75580,8 +79336,38 @@
       <c r="M1069" t="s">
         <v>4</v>
       </c>
-      <c r="N1069">
-        <v>0</v>
+      <c r="N1069" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1069" t="s">
+        <v>1619</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>0.2714838537494728</v>
+      </c>
+      <c r="R1069" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S1069" t="n">
+        <v>31.987473409619255</v>
+      </c>
+      <c r="T1069" t="n">
+        <v>0.9531545311054822</v>
+      </c>
+      <c r="U1069" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V1069" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1069" t="s">
+        <v>1620</v>
+      </c>
+      <c r="X1069" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1070" spans="1:14" x14ac:dyDescent="0.2">
@@ -75624,8 +79410,38 @@
       <c r="M1070" t="s">
         <v>4</v>
       </c>
-      <c r="N1070">
-        <v>0</v>
+      <c r="N1070" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1070" t="s">
+        <v>1621</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0.26647432813590655</v>
+      </c>
+      <c r="R1070" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S1070" t="n">
+        <v>26.242942127197058</v>
+      </c>
+      <c r="T1070" t="n">
+        <v>0.9458161999338885</v>
+      </c>
+      <c r="U1070" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1070" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1070" t="s">
+        <v>1622</v>
+      </c>
+      <c r="X1070" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1071" spans="1:14" x14ac:dyDescent="0.2">
@@ -75668,8 +79484,38 @@
       <c r="M1071" t="s">
         <v>4</v>
       </c>
-      <c r="N1071">
-        <v>0</v>
+      <c r="N1071" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1071" t="s">
+        <v>1623</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0.3576527899763047</v>
+      </c>
+      <c r="R1071" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S1071" t="n">
+        <v>32.046307923376105</v>
+      </c>
+      <c r="T1071" t="n">
+        <v>0.9212083247270622</v>
+      </c>
+      <c r="U1071" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V1071" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1071" t="s">
+        <v>1624</v>
+      </c>
+      <c r="X1071" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1072" spans="1:14" x14ac:dyDescent="0.2">
@@ -75712,8 +79558,38 @@
       <c r="M1072" t="s">
         <v>4</v>
       </c>
-      <c r="N1072">
-        <v>0</v>
+      <c r="N1072" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1072" t="s">
+        <v>1625</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0.24722159481314776</v>
+      </c>
+      <c r="R1072" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S1072" t="n">
+        <v>24.382090972800277</v>
+      </c>
+      <c r="T1072" t="n">
+        <v>0.933767685463015</v>
+      </c>
+      <c r="U1072" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1072" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1072" t="s">
+        <v>1626</v>
+      </c>
+      <c r="X1072" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1073" spans="1:14" x14ac:dyDescent="0.2">
@@ -75756,8 +79632,38 @@
       <c r="M1073" t="s">
         <v>4</v>
       </c>
-      <c r="N1073">
-        <v>0</v>
+      <c r="N1073" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1073" t="s">
+        <v>1627</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>0.1730570363584807</v>
+      </c>
+      <c r="R1073" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S1073" t="n">
+        <v>3.499984218821963</v>
+      </c>
+      <c r="T1073" t="n">
+        <v>0.9832160758170665</v>
+      </c>
+      <c r="U1073" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1073" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1073" t="s">
+        <v>1628</v>
+      </c>
+      <c r="X1073" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1074" spans="1:14" x14ac:dyDescent="0.2">
@@ -75800,8 +79706,38 @@
       <c r="M1074" t="s">
         <v>4</v>
       </c>
-      <c r="N1074">
-        <v>0</v>
+      <c r="N1074" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1074" t="s">
+        <v>1629</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0.5059638879362698</v>
+      </c>
+      <c r="R1074" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S1074" t="n">
+        <v>54.41980654455398</v>
+      </c>
+      <c r="T1074" t="n">
+        <v>0.9267495302822667</v>
+      </c>
+      <c r="U1074" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="V1074" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1074" t="s">
+        <v>1630</v>
+      </c>
+      <c r="X1074" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1075" spans="1:14" x14ac:dyDescent="0.2">
@@ -75844,8 +79780,38 @@
       <c r="M1075" t="s">
         <v>4</v>
       </c>
-      <c r="N1075">
-        <v>0</v>
+      <c r="N1075" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1075" t="s">
+        <v>1631</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0.20939623341313407</v>
+      </c>
+      <c r="R1075" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S1075" t="n">
+        <v>8.620341919825067</v>
+      </c>
+      <c r="T1075" t="n">
+        <v>0.9598945615326914</v>
+      </c>
+      <c r="U1075" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1075" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1075" t="s">
+        <v>1632</v>
+      </c>
+      <c r="X1075" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1076" spans="1:14" x14ac:dyDescent="0.2">
@@ -75888,8 +79854,38 @@
       <c r="M1076" t="s">
         <v>4</v>
       </c>
-      <c r="N1076">
-        <v>0</v>
+      <c r="N1076" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1076" t="s">
+        <v>1633</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0.20789780367343091</v>
+      </c>
+      <c r="R1076" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S1076" t="n">
+        <v>9.76592332031276</v>
+      </c>
+      <c r="T1076" t="n">
+        <v>0.9570571403329252</v>
+      </c>
+      <c r="U1076" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1076" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1076" t="s">
+        <v>1634</v>
+      </c>
+      <c r="X1076" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1077" spans="1:14" x14ac:dyDescent="0.2">
@@ -75932,8 +79928,38 @@
       <c r="M1077" t="s">
         <v>4</v>
       </c>
-      <c r="N1077">
-        <v>0</v>
+      <c r="N1077" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1077" t="s">
+        <v>1635</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>0.19301097513039167</v>
+      </c>
+      <c r="R1077" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S1077" t="n">
+        <v>19.669535223423015</v>
+      </c>
+      <c r="T1077" t="n">
+        <v>0.9246951281818209</v>
+      </c>
+      <c r="U1077" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1077" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1077" t="s">
+        <v>1636</v>
+      </c>
+      <c r="X1077" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1078" spans="1:14" x14ac:dyDescent="0.2">
@@ -75976,8 +80002,38 @@
       <c r="M1078" t="s">
         <v>4</v>
       </c>
-      <c r="N1078">
-        <v>0</v>
+      <c r="N1078" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1078" t="s">
+        <v>1637</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0.21823921373018074</v>
+      </c>
+      <c r="R1078" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S1078" t="n">
+        <v>13.179222431330249</v>
+      </c>
+      <c r="T1078" t="n">
+        <v>0.9627965188553725</v>
+      </c>
+      <c r="U1078" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V1078" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1078" t="s">
+        <v>1638</v>
+      </c>
+      <c r="X1078" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1079" spans="1:14" x14ac:dyDescent="0.2">
@@ -76020,8 +80076,38 @@
       <c r="M1079" t="s">
         <v>4</v>
       </c>
-      <c r="N1079">
-        <v>0</v>
+      <c r="N1079" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1079" t="s">
+        <v>1639</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0.17427858062739254</v>
+      </c>
+      <c r="R1079" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S1079" t="n">
+        <v>8.846249673693762</v>
+      </c>
+      <c r="T1079" t="n">
+        <v>0.9541034053470501</v>
+      </c>
+      <c r="U1079" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1079" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1079" t="s">
+        <v>1640</v>
+      </c>
+      <c r="X1079" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1080" spans="1:14" x14ac:dyDescent="0.2">
@@ -76064,8 +80150,38 @@
       <c r="M1080" t="s">
         <v>4</v>
       </c>
-      <c r="N1080">
-        <v>0</v>
+      <c r="N1080" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1080" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0.1554286877702662</v>
+      </c>
+      <c r="R1080" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S1080" t="n">
+        <v>7.752454131383538</v>
+      </c>
+      <c r="T1080" t="n">
+        <v>0.9629839572013719</v>
+      </c>
+      <c r="U1080" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V1080" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1080" t="s">
+        <v>1642</v>
+      </c>
+      <c r="X1080" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1081" spans="1:14" x14ac:dyDescent="0.2">
@@ -76108,8 +80224,38 @@
       <c r="M1081" t="s">
         <v>4</v>
       </c>
-      <c r="N1081">
-        <v>0</v>
+      <c r="N1081" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1081" t="s">
+        <v>1643</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0.641467394833299</v>
+      </c>
+      <c r="R1081" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S1081" t="n">
+        <v>58.40077432401406</v>
+      </c>
+      <c r="T1081" t="n">
+        <v>0.851216551815248</v>
+      </c>
+      <c r="U1081" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="V1081" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1081" t="s">
+        <v>1644</v>
+      </c>
+      <c r="X1081" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1082" spans="1:14" x14ac:dyDescent="0.2">
@@ -76152,8 +80298,38 @@
       <c r="M1082" t="s">
         <v>4</v>
       </c>
-      <c r="N1082">
-        <v>0</v>
+      <c r="N1082" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1082" t="s">
+        <v>1645</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0.15561764564795943</v>
+      </c>
+      <c r="R1082" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S1082" t="n">
+        <v>7.5574542188791005</v>
+      </c>
+      <c r="T1082" t="n">
+        <v>0.9668232469809566</v>
+      </c>
+      <c r="U1082" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1082" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1082" t="s">
+        <v>1646</v>
+      </c>
+      <c r="X1082" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1083" spans="1:14" x14ac:dyDescent="0.2">
@@ -76196,8 +80372,38 @@
       <c r="M1083" t="s">
         <v>4</v>
       </c>
-      <c r="N1083">
-        <v>0</v>
+      <c r="N1083" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1083" t="s">
+        <v>1647</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>0.23674315618872477</v>
+      </c>
+      <c r="R1083" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="S1083" t="n">
+        <v>9.291899115811376</v>
+      </c>
+      <c r="T1083" t="n">
+        <v>0.9726168225300613</v>
+      </c>
+      <c r="U1083" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1083" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W1083" t="s">
+        <v>1648</v>
+      </c>
+      <c r="X1083" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1084" spans="1:14" x14ac:dyDescent="0.2">
@@ -76240,8 +80446,38 @@
       <c r="M1084" t="s">
         <v>4</v>
       </c>
-      <c r="N1084">
-        <v>0</v>
+      <c r="N1084" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1084" t="s">
+        <v>1649</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>0.13815889148770388</v>
+      </c>
+      <c r="R1084" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S1084" t="n">
+        <v>5.477629135462409</v>
+      </c>
+      <c r="T1084" t="n">
+        <v>0.9813350998296205</v>
+      </c>
+      <c r="U1084" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1084" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W1084" t="s">
+        <v>1650</v>
+      </c>
+      <c r="X1084" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1085" spans="1:14" x14ac:dyDescent="0.2">
@@ -76284,8 +80520,38 @@
       <c r="M1085" t="s">
         <v>4</v>
       </c>
-      <c r="N1085">
-        <v>0</v>
+      <c r="N1085" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1085" t="s">
+        <v>1651</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>0.2333709622379736</v>
+      </c>
+      <c r="R1085" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S1085" t="n">
+        <v>12.72505964182056</v>
+      </c>
+      <c r="T1085" t="n">
+        <v>0.9594600955571568</v>
+      </c>
+      <c r="U1085" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V1085" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1085" t="s">
+        <v>1652</v>
+      </c>
+      <c r="X1085" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1086" spans="1:14" x14ac:dyDescent="0.2">
@@ -76328,8 +80594,38 @@
       <c r="M1086" t="s">
         <v>4</v>
       </c>
-      <c r="N1086">
-        <v>0</v>
+      <c r="N1086" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1086" t="s">
+        <v>1653</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>0.16647771007196255</v>
+      </c>
+      <c r="R1086" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="S1086" t="n">
+        <v>5.4913633591963755</v>
+      </c>
+      <c r="T1086" t="n">
+        <v>0.9748125980767276</v>
+      </c>
+      <c r="U1086" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1086" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1086" t="s">
+        <v>1654</v>
+      </c>
+      <c r="X1086" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1087" spans="1:14" x14ac:dyDescent="0.2">
@@ -76372,8 +80668,38 @@
       <c r="M1087" t="s">
         <v>4</v>
       </c>
-      <c r="N1087">
-        <v>0</v>
+      <c r="N1087" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1087" t="s">
+        <v>1655</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0.3157135255943775</v>
+      </c>
+      <c r="R1087" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S1087" t="n">
+        <v>12.768409664263594</v>
+      </c>
+      <c r="T1087" t="n">
+        <v>0.976305089413206</v>
+      </c>
+      <c r="U1087" t="n">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="V1087" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1087" t="s">
+        <v>1656</v>
+      </c>
+      <c r="X1087" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1088" spans="1:14" x14ac:dyDescent="0.2">
@@ -76416,8 +80742,38 @@
       <c r="M1088" t="s">
         <v>4</v>
       </c>
-      <c r="N1088">
-        <v>0</v>
+      <c r="N1088" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1088" t="s">
+        <v>1657</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>0.5585113389138812</v>
+      </c>
+      <c r="R1088" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S1088" t="n">
+        <v>39.403851924415406</v>
+      </c>
+      <c r="T1088" t="n">
+        <v>0.9519136825404882</v>
+      </c>
+      <c r="U1088" t="n">
+        <v>84.7953216374269</v>
+      </c>
+      <c r="V1088" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1088" t="s">
+        <v>1658</v>
+      </c>
+      <c r="X1088" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1089" spans="1:14" x14ac:dyDescent="0.2">
@@ -76460,8 +80816,38 @@
       <c r="M1089" t="s">
         <v>4</v>
       </c>
-      <c r="N1089">
-        <v>0</v>
+      <c r="N1089" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1089" t="s">
+        <v>1659</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>0.3955449646632161</v>
+      </c>
+      <c r="R1089" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S1089" t="n">
+        <v>137.0858797613496</v>
+      </c>
+      <c r="T1089" t="n">
+        <v>0.8742593496386458</v>
+      </c>
+      <c r="U1089" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V1089" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1089" t="s">
+        <v>1660</v>
+      </c>
+      <c r="X1089" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1090" spans="1:14" x14ac:dyDescent="0.2">
@@ -76504,8 +80890,38 @@
       <c r="M1090" t="s">
         <v>4</v>
       </c>
-      <c r="N1090">
-        <v>0</v>
+      <c r="N1090" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1090" t="s">
+        <v>1661</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>0.3944979378846263</v>
+      </c>
+      <c r="R1090" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S1090" t="n">
+        <v>32.061573267663874</v>
+      </c>
+      <c r="T1090" t="n">
+        <v>0.9301134942056279</v>
+      </c>
+      <c r="U1090" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V1090" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1090" t="s">
+        <v>1662</v>
+      </c>
+      <c r="X1090" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1091" spans="1:14" x14ac:dyDescent="0.2">
@@ -76548,8 +80964,38 @@
       <c r="M1091" t="s">
         <v>4</v>
       </c>
-      <c r="N1091">
-        <v>0</v>
+      <c r="N1091" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1091" t="s">
+        <v>1663</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>0.3429879032061969</v>
+      </c>
+      <c r="R1091" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S1091" t="n">
+        <v>37.4301603372403</v>
+      </c>
+      <c r="T1091" t="n">
+        <v>0.9331661841289683</v>
+      </c>
+      <c r="U1091" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="V1091" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1091" t="s">
+        <v>1664</v>
+      </c>
+      <c r="X1091" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1092" spans="1:14" x14ac:dyDescent="0.2">
@@ -76592,8 +81038,38 @@
       <c r="M1092" t="s">
         <v>4</v>
       </c>
-      <c r="N1092">
-        <v>0</v>
+      <c r="N1092" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1092" t="s">
+        <v>1665</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>0.35083643841380585</v>
+      </c>
+      <c r="R1092" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S1092" t="n">
+        <v>39.544056684573036</v>
+      </c>
+      <c r="T1092" t="n">
+        <v>0.9251217202613907</v>
+      </c>
+      <c r="U1092" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V1092" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1092" t="s">
+        <v>1666</v>
+      </c>
+      <c r="X1092" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1093" spans="1:14" x14ac:dyDescent="0.2">
@@ -76636,8 +81112,38 @@
       <c r="M1093" t="s">
         <v>4</v>
       </c>
-      <c r="N1093">
-        <v>0</v>
+      <c r="N1093" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1093" t="s">
+        <v>1667</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>0.3171673191564768</v>
+      </c>
+      <c r="R1093" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S1093" t="n">
+        <v>29.412090587240776</v>
+      </c>
+      <c r="T1093" t="n">
+        <v>0.9370538060672579</v>
+      </c>
+      <c r="U1093" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V1093" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1093" t="s">
+        <v>1668</v>
+      </c>
+      <c r="X1093" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1094" spans="1:14" x14ac:dyDescent="0.2">
@@ -76680,8 +81186,38 @@
       <c r="M1094" t="s">
         <v>4</v>
       </c>
-      <c r="N1094">
-        <v>0</v>
+      <c r="N1094" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1094" t="s">
+        <v>1669</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>0.2698898346294403</v>
+      </c>
+      <c r="R1094" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S1094" t="n">
+        <v>21.34578667474666</v>
+      </c>
+      <c r="T1094" t="n">
+        <v>0.9321817281022259</v>
+      </c>
+      <c r="U1094" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1094" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1094" t="s">
+        <v>1670</v>
+      </c>
+      <c r="X1094" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1095" spans="1:14" x14ac:dyDescent="0.2">
@@ -76724,8 +81260,38 @@
       <c r="M1095" t="s">
         <v>4</v>
       </c>
-      <c r="N1095">
-        <v>0</v>
+      <c r="N1095" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1095" t="s">
+        <v>1672</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>0.7216664083502824</v>
+      </c>
+      <c r="R1095" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S1095" t="n">
+        <v>32.277267158121425</v>
+      </c>
+      <c r="T1095" t="n">
+        <v>0.8452728060756963</v>
+      </c>
+      <c r="U1095" t="n">
+        <v>88.30409356725146</v>
+      </c>
+      <c r="V1095" t="n">
+        <v>36.84210526315791</v>
+      </c>
+      <c r="W1095" t="s">
+        <v>1673</v>
+      </c>
+      <c r="X1095" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1096" spans="1:14" x14ac:dyDescent="0.2">
@@ -76768,8 +81334,38 @@
       <c r="M1096" t="s">
         <v>4</v>
       </c>
-      <c r="N1096">
-        <v>0</v>
+      <c r="N1096" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1096" t="s">
+        <v>1674</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>0.26347746165146546</v>
+      </c>
+      <c r="R1096" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S1096" t="n">
+        <v>20.06677928591706</v>
+      </c>
+      <c r="T1096" t="n">
+        <v>0.9345191606234977</v>
+      </c>
+      <c r="U1096" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V1096" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1096" t="s">
+        <v>1675</v>
+      </c>
+      <c r="X1096" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1097" spans="1:14" x14ac:dyDescent="0.2">
@@ -76812,8 +81408,38 @@
       <c r="M1097" t="s">
         <v>4</v>
       </c>
-      <c r="N1097">
-        <v>0</v>
+      <c r="N1097" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1097" t="s">
+        <v>1676</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>0.2941927746925366</v>
+      </c>
+      <c r="R1097" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S1097" t="n">
+        <v>30.89615292776224</v>
+      </c>
+      <c r="T1097" t="n">
+        <v>0.9173430487180143</v>
+      </c>
+      <c r="U1097" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V1097" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1097" t="s">
+        <v>1677</v>
+      </c>
+      <c r="X1097" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1098" spans="1:14" x14ac:dyDescent="0.2">
@@ -76856,8 +81482,38 @@
       <c r="M1098" t="s">
         <v>4</v>
       </c>
-      <c r="N1098">
-        <v>0</v>
+      <c r="N1098" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1098" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>0.26939566062839404</v>
+      </c>
+      <c r="R1098" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S1098" t="n">
+        <v>13.043457706982919</v>
+      </c>
+      <c r="T1098" t="n">
+        <v>0.9605064165143194</v>
+      </c>
+      <c r="U1098" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1098" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1098" t="s">
+        <v>1679</v>
+      </c>
+      <c r="X1098" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1099" spans="1:14" x14ac:dyDescent="0.2">
@@ -76900,8 +81556,38 @@
       <c r="M1099" t="s">
         <v>4</v>
       </c>
-      <c r="N1099">
-        <v>0</v>
+      <c r="N1099" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1099" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>0.3127737842544551</v>
+      </c>
+      <c r="R1099" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S1099" t="n">
+        <v>25.67012761704098</v>
+      </c>
+      <c r="T1099" t="n">
+        <v>0.9266819529906194</v>
+      </c>
+      <c r="U1099" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V1099" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1099" t="s">
+        <v>1681</v>
+      </c>
+      <c r="X1099" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1100" spans="1:14" x14ac:dyDescent="0.2">
@@ -76944,8 +81630,38 @@
       <c r="M1100" t="s">
         <v>4</v>
       </c>
-      <c r="N1100">
-        <v>0</v>
+      <c r="N1100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1100" t="s">
+        <v>1682</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>0.24294715684564316</v>
+      </c>
+      <c r="R1100" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S1100" t="n">
+        <v>29.284086150968115</v>
+      </c>
+      <c r="T1100" t="n">
+        <v>0.947514135635051</v>
+      </c>
+      <c r="U1100" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1100" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1100" t="s">
+        <v>1683</v>
+      </c>
+      <c r="X1100" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1101" spans="1:14" x14ac:dyDescent="0.2">
@@ -76988,8 +81704,38 @@
       <c r="M1101" t="s">
         <v>4</v>
       </c>
-      <c r="N1101">
-        <v>0</v>
+      <c r="N1101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1101" t="s">
+        <v>1684</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>0.17789059236672955</v>
+      </c>
+      <c r="R1101" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S1101" t="n">
+        <v>13.956761882289225</v>
+      </c>
+      <c r="T1101" t="n">
+        <v>0.9467657880036952</v>
+      </c>
+      <c r="U1101" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1101" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W1101" t="s">
+        <v>1685</v>
+      </c>
+      <c r="X1101" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1102" spans="1:14" x14ac:dyDescent="0.2">
@@ -77032,8 +81778,38 @@
       <c r="M1102" t="s">
         <v>4</v>
       </c>
-      <c r="N1102">
-        <v>0</v>
+      <c r="N1102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1102" t="s">
+        <v>1686</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>0.5098138815431987</v>
+      </c>
+      <c r="R1102" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S1102" t="n">
+        <v>66.43447859571012</v>
+      </c>
+      <c r="T1102" t="n">
+        <v>0.9276716263421665</v>
+      </c>
+      <c r="U1102" t="n">
+        <v>93.5672514619883</v>
+      </c>
+      <c r="V1102" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1102" t="s">
+        <v>1687</v>
+      </c>
+      <c r="X1102" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1103" spans="1:14" x14ac:dyDescent="0.2">
@@ -77076,8 +81852,38 @@
       <c r="M1103" t="s">
         <v>4</v>
       </c>
-      <c r="N1103">
-        <v>0</v>
+      <c r="N1103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1103" t="s">
+        <v>1688</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>0.21272542633415625</v>
+      </c>
+      <c r="R1103" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S1103" t="n">
+        <v>13.219356587043258</v>
+      </c>
+      <c r="T1103" t="n">
+        <v>0.9548408045743695</v>
+      </c>
+      <c r="U1103" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1103" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1103" t="s">
+        <v>1689</v>
+      </c>
+      <c r="X1103" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1104" spans="1:14" x14ac:dyDescent="0.2">
@@ -77120,8 +81926,38 @@
       <c r="M1104" t="s">
         <v>4</v>
       </c>
-      <c r="N1104">
-        <v>0</v>
+      <c r="N1104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1104" t="s">
+        <v>1690</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>0.2110843562514404</v>
+      </c>
+      <c r="R1104" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S1104" t="n">
+        <v>16.945251916482267</v>
+      </c>
+      <c r="T1104" t="n">
+        <v>0.9529479079938142</v>
+      </c>
+      <c r="U1104" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1104" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1104" t="s">
+        <v>1691</v>
+      </c>
+      <c r="X1104" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1105" spans="1:14" x14ac:dyDescent="0.2">
@@ -77164,8 +82000,38 @@
       <c r="M1105" t="s">
         <v>4</v>
       </c>
-      <c r="N1105">
-        <v>0</v>
+      <c r="N1105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1105" t="s">
+        <v>1692</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>0.1746681328003863</v>
+      </c>
+      <c r="R1105" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S1105" t="n">
+        <v>7.715689330845939</v>
+      </c>
+      <c r="T1105" t="n">
+        <v>0.9765896789483437</v>
+      </c>
+      <c r="U1105" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1105" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1105" t="s">
+        <v>1693</v>
+      </c>
+      <c r="X1105" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1106" spans="1:14" x14ac:dyDescent="0.2">
@@ -77208,8 +82074,38 @@
       <c r="M1106" t="s">
         <v>4</v>
       </c>
-      <c r="N1106">
-        <v>0</v>
+      <c r="N1106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1106" t="s">
+        <v>1694</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>0.23329456792751913</v>
+      </c>
+      <c r="R1106" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S1106" t="n">
+        <v>20.90405644000526</v>
+      </c>
+      <c r="T1106" t="n">
+        <v>0.9484178702429586</v>
+      </c>
+      <c r="U1106" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1106" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W1106" t="s">
+        <v>1695</v>
+      </c>
+      <c r="X1106" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1107" spans="1:14" x14ac:dyDescent="0.2">
@@ -77252,8 +82148,38 @@
       <c r="M1107" t="s">
         <v>4</v>
       </c>
-      <c r="N1107">
-        <v>0</v>
+      <c r="N1107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1107" t="s">
+        <v>1696</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>0.17882871831583103</v>
+      </c>
+      <c r="R1107" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S1107" t="n">
+        <v>7.147140351139525</v>
+      </c>
+      <c r="T1107" t="n">
+        <v>0.9660693920086284</v>
+      </c>
+      <c r="U1107" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1107" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1107" t="s">
+        <v>1697</v>
+      </c>
+      <c r="X1107" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1108" spans="1:14" x14ac:dyDescent="0.2">
@@ -77296,8 +82222,38 @@
       <c r="M1108" t="s">
         <v>4</v>
       </c>
-      <c r="N1108">
-        <v>0</v>
+      <c r="N1108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1108" t="s">
+        <v>1698</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>0.1622240325019746</v>
+      </c>
+      <c r="R1108" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S1108" t="n">
+        <v>5.528157852071054</v>
+      </c>
+      <c r="T1108" t="n">
+        <v>0.9760371155913615</v>
+      </c>
+      <c r="U1108" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1108" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W1108" t="s">
+        <v>1699</v>
+      </c>
+      <c r="X1108" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1109" spans="1:14" x14ac:dyDescent="0.2">
@@ -77340,8 +82296,38 @@
       <c r="M1109" t="s">
         <v>4</v>
       </c>
-      <c r="N1109">
-        <v>0</v>
+      <c r="N1109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1109" t="s">
+        <v>1700</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>0.6075068609588481</v>
+      </c>
+      <c r="R1109" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S1109" t="n">
+        <v>57.987324792099685</v>
+      </c>
+      <c r="T1109" t="n">
+        <v>0.9240549143096566</v>
+      </c>
+      <c r="U1109" t="n">
+        <v>87.71929824561404</v>
+      </c>
+      <c r="V1109" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1109" t="s">
+        <v>1701</v>
+      </c>
+      <c r="X1109" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1110" spans="1:14" x14ac:dyDescent="0.2">
@@ -77384,8 +82370,38 @@
       <c r="M1110" t="s">
         <v>4</v>
       </c>
-      <c r="N1110">
-        <v>0</v>
+      <c r="N1110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1110" t="s">
+        <v>1702</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>0.15899411624896942</v>
+      </c>
+      <c r="R1110" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S1110" t="n">
+        <v>7.1784910340128665</v>
+      </c>
+      <c r="T1110" t="n">
+        <v>0.971327469051964</v>
+      </c>
+      <c r="U1110" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1110" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W1110" t="s">
+        <v>1703</v>
+      </c>
+      <c r="X1110" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1111" spans="1:14" x14ac:dyDescent="0.2">
@@ -77428,8 +82444,38 @@
       <c r="M1111" t="s">
         <v>4</v>
       </c>
-      <c r="N1111">
-        <v>0</v>
+      <c r="N1111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1111" t="s">
+        <v>1704</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>0.24002624129775896</v>
+      </c>
+      <c r="R1111" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S1111" t="n">
+        <v>6.241022711190979</v>
+      </c>
+      <c r="T1111" t="n">
+        <v>0.9806706147972288</v>
+      </c>
+      <c r="U1111" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1111" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W1111" t="s">
+        <v>1705</v>
+      </c>
+      <c r="X1111" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1112" spans="1:14" x14ac:dyDescent="0.2">
@@ -77472,8 +82518,38 @@
       <c r="M1112" t="s">
         <v>4</v>
       </c>
-      <c r="N1112">
-        <v>0</v>
+      <c r="N1112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1112" t="s">
+        <v>1706</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>0.14523775667110428</v>
+      </c>
+      <c r="R1112" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S1112" t="n">
+        <v>4.658037614364897</v>
+      </c>
+      <c r="T1112" t="n">
+        <v>0.9780011346069659</v>
+      </c>
+      <c r="U1112" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1112" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W1112" t="s">
+        <v>1707</v>
+      </c>
+      <c r="X1112" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1113" spans="1:14" x14ac:dyDescent="0.2">
@@ -77516,8 +82592,38 @@
       <c r="M1113" t="s">
         <v>4</v>
       </c>
-      <c r="N1113">
-        <v>0</v>
+      <c r="N1113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1113" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>0.24130917144906938</v>
+      </c>
+      <c r="R1113" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S1113" t="n">
+        <v>9.723204282342992</v>
+      </c>
+      <c r="T1113" t="n">
+        <v>0.9660045041310457</v>
+      </c>
+      <c r="U1113" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1113" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W1113" t="s">
+        <v>1709</v>
+      </c>
+      <c r="X1113" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1114" spans="1:14" x14ac:dyDescent="0.2">
@@ -77560,8 +82666,38 @@
       <c r="M1114" t="s">
         <v>4</v>
       </c>
-      <c r="N1114">
-        <v>0</v>
+      <c r="N1114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1114" t="s">
+        <v>1710</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0.1740898437916023</v>
+      </c>
+      <c r="R1114" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S1114" t="n">
+        <v>9.352075831654838</v>
+      </c>
+      <c r="T1114" t="n">
+        <v>0.9628788672387343</v>
+      </c>
+      <c r="U1114" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V1114" t="n">
+        <v>68.42105263157896</v>
+      </c>
+      <c r="W1114" t="s">
+        <v>1711</v>
+      </c>
+      <c r="X1114" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1115" spans="1:14" x14ac:dyDescent="0.2">
@@ -77604,8 +82740,38 @@
       <c r="M1115" t="s">
         <v>4</v>
       </c>
-      <c r="N1115">
-        <v>0</v>
+      <c r="N1115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1115" t="s">
+        <v>1712</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>0.2768407801660402</v>
+      </c>
+      <c r="R1115" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S1115" t="n">
+        <v>15.24410958498207</v>
+      </c>
+      <c r="T1115" t="n">
+        <v>0.9682833255130678</v>
+      </c>
+      <c r="U1115" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V1115" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1115" t="s">
+        <v>1713</v>
+      </c>
+      <c r="X1115" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1116" spans="1:14" x14ac:dyDescent="0.2">
@@ -77648,8 +82814,38 @@
       <c r="M1116" t="s">
         <v>4</v>
       </c>
-      <c r="N1116">
-        <v>0</v>
+      <c r="N1116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1116" t="s">
+        <v>1714</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0.5468921305240464</v>
+      </c>
+      <c r="R1116" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S1116" t="n">
+        <v>26.575922804745527</v>
+      </c>
+      <c r="T1116" t="n">
+        <v>0.9503571021550303</v>
+      </c>
+      <c r="U1116" t="n">
+        <v>90.64327485380117</v>
+      </c>
+      <c r="V1116" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1116" t="s">
+        <v>1715</v>
+      </c>
+      <c r="X1116" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1117" spans="1:14" x14ac:dyDescent="0.2">
@@ -77692,8 +82888,38 @@
       <c r="M1117" t="s">
         <v>4</v>
       </c>
-      <c r="N1117">
-        <v>0</v>
+      <c r="N1117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1117" t="s">
+        <v>1716</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>0.32759266618997707</v>
+      </c>
+      <c r="R1117" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S1117" t="n">
+        <v>104.89666282809083</v>
+      </c>
+      <c r="T1117" t="n">
+        <v>0.9159103296668036</v>
+      </c>
+      <c r="U1117" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V1117" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1117" t="s">
+        <v>1717</v>
+      </c>
+      <c r="X1117" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1118" spans="1:14" x14ac:dyDescent="0.2">
@@ -77736,8 +82962,38 @@
       <c r="M1118" t="s">
         <v>4</v>
       </c>
-      <c r="N1118">
-        <v>0</v>
+      <c r="N1118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1118" t="s">
+        <v>1718</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>0.3763193113049397</v>
+      </c>
+      <c r="R1118" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S1118" t="n">
+        <v>24.344831403859654</v>
+      </c>
+      <c r="T1118" t="n">
+        <v>0.9585444332891718</v>
+      </c>
+      <c r="U1118" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V1118" t="n">
+        <v>47.36842105263159</v>
+      </c>
+      <c r="W1118" t="s">
+        <v>1719</v>
+      </c>
+      <c r="X1118" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1119" spans="1:14" x14ac:dyDescent="0.2">
@@ -77780,8 +83036,38 @@
       <c r="M1119" t="s">
         <v>4</v>
       </c>
-      <c r="N1119">
-        <v>0</v>
+      <c r="N1119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1119" t="s">
+        <v>1720</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>0.29993109761310244</v>
+      </c>
+      <c r="R1119" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S1119" t="n">
+        <v>34.51971170140037</v>
+      </c>
+      <c r="T1119" t="n">
+        <v>0.9392356449256533</v>
+      </c>
+      <c r="U1119" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V1119" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1119" t="s">
+        <v>1721</v>
+      </c>
+      <c r="X1119" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1120" spans="1:14" x14ac:dyDescent="0.2">
@@ -77824,8 +83110,38 @@
       <c r="M1120" t="s">
         <v>4</v>
       </c>
-      <c r="N1120">
-        <v>0</v>
+      <c r="N1120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1120" t="s">
+        <v>1722</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>0.368399481397768</v>
+      </c>
+      <c r="R1120" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S1120" t="n">
+        <v>25.319414127132593</v>
+      </c>
+      <c r="T1120" t="n">
+        <v>0.9349545523336436</v>
+      </c>
+      <c r="U1120" t="n">
+        <v>97.07602339181287</v>
+      </c>
+      <c r="V1120" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1120" t="s">
+        <v>1723</v>
+      </c>
+      <c r="X1120" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1121" spans="1:14" x14ac:dyDescent="0.2">
@@ -77868,8 +83184,38 @@
       <c r="M1121" t="s">
         <v>4</v>
       </c>
-      <c r="N1121">
-        <v>0</v>
+      <c r="N1121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1121" t="s">
+        <v>1724</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0.34444740070186697</v>
+      </c>
+      <c r="R1121" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S1121" t="n">
+        <v>53.39429520643147</v>
+      </c>
+      <c r="T1121" t="n">
+        <v>0.8839085583378539</v>
+      </c>
+      <c r="U1121" t="n">
+        <v>96.49122807017544</v>
+      </c>
+      <c r="V1121" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1121" t="s">
+        <v>1725</v>
+      </c>
+      <c r="X1121" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1122" spans="1:14" x14ac:dyDescent="0.2">
@@ -77912,8 +83258,38 @@
       <c r="M1122" t="s">
         <v>4</v>
       </c>
-      <c r="N1122">
-        <v>0</v>
+      <c r="N1122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1122" t="s">
+        <v>1726</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0.2532720535180193</v>
+      </c>
+      <c r="R1122" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S1122" t="n">
+        <v>16.9306906021001</v>
+      </c>
+      <c r="T1122" t="n">
+        <v>0.9435674426091624</v>
+      </c>
+      <c r="U1122" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V1122" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1122" t="s">
+        <v>1727</v>
+      </c>
+      <c r="X1122" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1123" spans="1:14" x14ac:dyDescent="0.2">
@@ -77956,8 +83332,38 @@
       <c r="M1123" t="s">
         <v>4</v>
       </c>
-      <c r="N1123">
-        <v>0</v>
+      <c r="N1123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1123" t="s">
+        <v>1729</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0.7609633201728467</v>
+      </c>
+      <c r="R1123" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S1123" t="n">
+        <v>30.09825162959916</v>
+      </c>
+      <c r="T1123" t="n">
+        <v>0.874033945136659</v>
+      </c>
+      <c r="U1123" t="n">
+        <v>91.2280701754386</v>
+      </c>
+      <c r="V1123" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W1123" t="s">
+        <v>1730</v>
+      </c>
+      <c r="X1123" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1124" spans="1:14" x14ac:dyDescent="0.2">
@@ -78000,8 +83406,38 @@
       <c r="M1124" t="s">
         <v>4</v>
       </c>
-      <c r="N1124">
-        <v>0</v>
+      <c r="N1124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0.27464712383813783</v>
+      </c>
+      <c r="R1124" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="S1124" t="n">
+        <v>18.953814095535094</v>
+      </c>
+      <c r="T1124" t="n">
+        <v>0.9549587248953988</v>
+      </c>
+      <c r="U1124" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1124" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W1124" t="s">
+        <v>1732</v>
+      </c>
+      <c r="X1124" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1125" spans="1:14" x14ac:dyDescent="0.2">
@@ -78044,8 +83480,38 @@
       <c r="M1125" t="s">
         <v>4</v>
       </c>
-      <c r="N1125">
-        <v>0</v>
+      <c r="N1125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1125" t="s">
+        <v>1733</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0.2825129946009177</v>
+      </c>
+      <c r="R1125" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="S1125" t="n">
+        <v>20.32367189182631</v>
+      </c>
+      <c r="T1125" t="n">
+        <v>0.9381284511678449</v>
+      </c>
+      <c r="U1125" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1125" t="n">
+        <v>57.894736842105274</v>
+      </c>
+      <c r="W1125" t="s">
+        <v>1734</v>
+      </c>
+      <c r="X1125" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1126" spans="1:14" x14ac:dyDescent="0.2">
@@ -78088,8 +83554,38 @@
       <c r="M1126" t="s">
         <v>4</v>
       </c>
-      <c r="N1126">
-        <v>0</v>
+      <c r="N1126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1126" t="s">
+        <v>1735</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0.2807031098335724</v>
+      </c>
+      <c r="R1126" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S1126" t="n">
+        <v>11.536974035586539</v>
+      </c>
+      <c r="T1126" t="n">
+        <v>0.9593364063857882</v>
+      </c>
+      <c r="U1126" t="n">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="V1126" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1126" t="s">
+        <v>1736</v>
+      </c>
+      <c r="X1126" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1127" spans="1:14" x14ac:dyDescent="0.2">
@@ -78132,8 +83628,38 @@
       <c r="M1127" t="s">
         <v>4</v>
       </c>
-      <c r="N1127">
-        <v>0</v>
+      <c r="N1127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1127" t="s">
+        <v>1737</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0.29373581908011204</v>
+      </c>
+      <c r="R1127" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S1127" t="n">
+        <v>23.732022288024833</v>
+      </c>
+      <c r="T1127" t="n">
+        <v>0.9426625220028234</v>
+      </c>
+      <c r="U1127" t="n">
+        <v>98.24561403508773</v>
+      </c>
+      <c r="V1127" t="n">
+        <v>63.15789473684212</v>
+      </c>
+      <c r="W1127" t="s">
+        <v>1738</v>
+      </c>
+      <c r="X1127" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1128" spans="1:14" x14ac:dyDescent="0.2">
@@ -78176,8 +83702,38 @@
       <c r="M1128" t="s">
         <v>4</v>
       </c>
-      <c r="N1128">
-        <v>0</v>
+      <c r="N1128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1128" t="s">
+        <v>1739</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0.23819777645407747</v>
+      </c>
+      <c r="R1128" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S1128" t="n">
+        <v>25.91029494985318</v>
+      </c>
+      <c r="T1128" t="n">
+        <v>0.9249149524281884</v>
+      </c>
+      <c r="U1128" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1128" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="W1128" t="s">
+        <v>1740</v>
+      </c>
+      <c r="X1128" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1129" spans="1:14" x14ac:dyDescent="0.2">
@@ -78220,8 +83776,38 @@
       <c r="M1129" t="s">
         <v>4</v>
       </c>
-      <c r="N1129">
-        <v>0</v>
+      <c r="N1129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1129" t="s">
+        <v>1741</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0.1852434600749735</v>
+      </c>
+      <c r="R1129" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S1129" t="n">
+        <v>6.490721726071371</v>
+      </c>
+      <c r="T1129" t="n">
+        <v>0.9766581702868072</v>
+      </c>
+      <c r="U1129" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1129" t="n">
+        <v>84.21052631578948</v>
+      </c>
+      <c r="W1129" t="s">
+        <v>1742</v>
+      </c>
+      <c r="X1129" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1130" spans="1:14" x14ac:dyDescent="0.2">
@@ -78264,8 +83850,38 @@
       <c r="M1130" t="s">
         <v>4</v>
       </c>
-      <c r="N1130">
-        <v>0</v>
+      <c r="N1130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1130" t="s">
+        <v>1743</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>1.4235900127719852</v>
+      </c>
+      <c r="R1130" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="S1130" t="n">
+        <v>67646.23488815466</v>
+      </c>
+      <c r="T1130" t="n">
+        <v>0.04130077346137523</v>
+      </c>
+      <c r="U1130" t="n">
+        <v>81.28654970760233</v>
+      </c>
+      <c r="V1130" t="n">
+        <v>36.84210526315791</v>
+      </c>
+      <c r="W1130" t="s">
+        <v>1744</v>
+      </c>
+      <c r="X1130" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1131" spans="1:14" x14ac:dyDescent="0.2">
@@ -78308,8 +83924,38 @@
       <c r="M1131" t="s">
         <v>4</v>
       </c>
-      <c r="N1131">
-        <v>0</v>
+      <c r="N1131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1131" t="s">
+        <v>1745</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0.1862329527848079</v>
+      </c>
+      <c r="R1131" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S1131" t="n">
+        <v>16.445049259023932</v>
+      </c>
+      <c r="T1131" t="n">
+        <v>0.9459850143218499</v>
+      </c>
+      <c r="U1131" t="n">
+        <v>98.83040935672514</v>
+      </c>
+      <c r="V1131" t="n">
+        <v>47.36842105263159</v>
+      </c>
+      <c r="W1131" t="s">
+        <v>1746</v>
+      </c>
+      <c r="X1131" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1132" spans="1:14" x14ac:dyDescent="0.2">
@@ -78352,8 +83998,38 @@
       <c r="M1132" t="s">
         <v>4</v>
       </c>
-      <c r="N1132">
-        <v>0</v>
+      <c r="N1132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1132" t="s">
+        <v>1747</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0.20757561967596594</v>
+      </c>
+      <c r="R1132" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S1132" t="n">
+        <v>9.19437547355061</v>
+      </c>
+      <c r="T1132" t="n">
+        <v>0.9694690049315939</v>
+      </c>
+      <c r="U1132" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1132" t="n">
+        <v>94.73684210526316</v>
+      </c>
+      <c r="W1132" t="s">
+        <v>1748</v>
+      </c>
+      <c r="X1132" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1133" spans="1:14" x14ac:dyDescent="0.2">
@@ -78396,8 +84072,38 @@
       <c r="M1133" t="s">
         <v>4</v>
       </c>
-      <c r="N1133">
-        <v>0</v>
+      <c r="N1133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1133" t="s">
+        <v>1749</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>1.960026513885552</v>
+      </c>
+      <c r="R1133" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S1133" t="n">
+        <v>1436.3125638276524</v>
+      </c>
+      <c r="T1133" t="n">
+        <v>0.6071560562392381</v>
+      </c>
+      <c r="U1133" t="n">
+        <v>82.45614035087719</v>
+      </c>
+      <c r="V1133" t="n">
+        <v>73.6842105263158</v>
+      </c>
+      <c r="W1133" t="s">
+        <v>1750</v>
+      </c>
+      <c r="X1133" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1134" spans="1:14" x14ac:dyDescent="0.2">
@@ -78440,8 +84146,38 @@
       <c r="M1134" t="s">
         <v>4</v>
       </c>
-      <c r="N1134">
-        <v>0</v>
+      <c r="N1134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O1134" t="s">
+        <v>1751</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>0.22662153649240402</v>
+      </c>
+      <c r="R1134" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S1134" t="n">
+        <v>25.143302230896005</v>
+      </c>
+      <c r="T1134" t="n">
+        <v>0.934284839799002</v>
+      </c>
+      <c r="U1134" t="n">
+        <v>99.41520467836257</v>
+      </c>
+      <c r="V1134" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="W1134" t="s">
+        <v>1752</v>
+      </c>
+      <c r="X1134" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1135" spans="1:14" x14ac:dyDescent="0.2">
@@ -78486,6 +84222,18 @@
       </c>
       <c r="N1135">
         <v>0</v>
+      </c>
+      <c r="O1135" t="s">
+        <v>1753</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>0.1769440128918891</v>
+      </c>
+      <c r="W1135" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="1136" spans="1:14" x14ac:dyDescent="0.2">
